--- a/data/trans_orig/P36B08-Clase-trans_orig.xlsx
+++ b/data/trans_orig/P36B08-Clase-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>4630</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>1807</v>
+        <v>1787</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>10133</v>
+        <v>10123</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.00979048444765635</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.003819876482883131</v>
+        <v>0.003779083438324466</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02142502357868738</v>
+        <v>0.02140498995051423</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>1</v>
@@ -767,7 +767,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>5607</v>
+        <v>4942</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.003201151088884187</v>
@@ -776,7 +776,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01828252592485445</v>
+        <v>0.01611599201480544</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>6</v>
@@ -785,19 +785,19 @@
         <v>5612</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>1919</v>
+        <v>2023</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>11268</v>
+        <v>12388</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.007198436873209439</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.002461857240949498</v>
+        <v>0.002594254097506534</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01445346283284695</v>
+        <v>0.01588958966380199</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>14719</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>8037</v>
+        <v>8353</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>23823</v>
+        <v>24140</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.03112126030425274</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01699348049008772</v>
+        <v>0.01766191181873964</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.05037262863661785</v>
+        <v>0.05104159033748642</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>8</v>
@@ -835,19 +835,19 @@
         <v>7855</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>3821</v>
+        <v>3901</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>14691</v>
+        <v>14480</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.02561368404677897</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01246047541271667</v>
+        <v>0.01271970631153272</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.04790497112524433</v>
+        <v>0.04721372683548496</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>23</v>
@@ -856,19 +856,19 @@
         <v>22574</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>14714</v>
+        <v>13810</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>34545</v>
+        <v>32935</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.02895474376881881</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01887271957316932</v>
+        <v>0.01771343434023296</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.0443092634786505</v>
+        <v>0.04224485839100229</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>122727</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>103509</v>
+        <v>103819</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>141381</v>
+        <v>141881</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.259496913659578</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2188623497495547</v>
+        <v>0.2195177944986236</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2989384792869269</v>
+        <v>0.2999955630185343</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>68</v>
@@ -906,19 +906,19 @@
         <v>69488</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>56728</v>
+        <v>55270</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>84608</v>
+        <v>84622</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2265818408899386</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1849761344273771</v>
+        <v>0.1802189624931596</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.275884430881188</v>
+        <v>0.2759279524937323</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>184</v>
@@ -927,19 +927,19 @@
         <v>192215</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>169928</v>
+        <v>167755</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>216313</v>
+        <v>216165</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2465491039358967</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2179617175023849</v>
+        <v>0.2151748241005134</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.2774578787764831</v>
+        <v>0.2772687328000401</v>
       </c>
     </row>
     <row r="7">
@@ -956,19 +956,19 @@
         <v>202396</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>181756</v>
+        <v>179445</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>224103</v>
+        <v>224244</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4279506038233107</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3843103014757001</v>
+        <v>0.3794234067894572</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4738481489965383</v>
+        <v>0.4741479866075622</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>118</v>
@@ -977,19 +977,19 @@
         <v>121705</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>105506</v>
+        <v>105022</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>138322</v>
+        <v>139830</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3968458998383395</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3440267841509188</v>
+        <v>0.342447188476298</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4510296955732213</v>
+        <v>0.4559481955585026</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>313</v>
@@ -998,19 +998,19 @@
         <v>324101</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>296807</v>
+        <v>297899</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>352479</v>
+        <v>355205</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4157149392836194</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3807052774257171</v>
+        <v>0.3821060677528428</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4521149550545235</v>
+        <v>0.455610940811042</v>
       </c>
     </row>
     <row r="8">
@@ -1027,19 +1027,19 @@
         <v>128470</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>108465</v>
+        <v>110191</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>148027</v>
+        <v>150801</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.2716407377652022</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.2293415742536173</v>
+        <v>0.2329909181248615</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.3129924462563585</v>
+        <v>0.3188582069622269</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>103</v>
@@ -1048,19 +1048,19 @@
         <v>106650</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>89423</v>
+        <v>89005</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>123782</v>
+        <v>123477</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.3477574241360589</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.2915831475443549</v>
+        <v>0.2902197032370612</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4036206453798928</v>
+        <v>0.4026260270601207</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>226</v>
@@ -1069,19 +1069,19 @@
         <v>235121</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>208914</v>
+        <v>210372</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>260545</v>
+        <v>263747</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.3015827761384556</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.2679675395287803</v>
+        <v>0.2698385221161952</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.3341941103529023</v>
+        <v>0.3383011161385986</v>
       </c>
     </row>
     <row r="9">
@@ -1173,19 +1173,19 @@
         <v>3764</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>900</v>
+        <v>909</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>11094</v>
+        <v>12397</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01025701671004402</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.002453358661742314</v>
+        <v>0.002476404325509583</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.03023462627965148</v>
+        <v>0.03378423295303336</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>5</v>
@@ -1194,19 +1194,19 @@
         <v>5059</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>1875</v>
+        <v>1882</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>11248</v>
+        <v>11129</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.0136032027190929</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.005043342774048718</v>
+        <v>0.005061962141882486</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03024756252844708</v>
+        <v>0.02992684535082977</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>8</v>
@@ -1215,19 +1215,19 @@
         <v>8822</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>3834</v>
+        <v>3999</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>16624</v>
+        <v>17804</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.01194127589448631</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.005188919660409767</v>
+        <v>0.005412332170889953</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.02250105769524377</v>
+        <v>0.02409879908946934</v>
       </c>
     </row>
     <row r="11">
@@ -1244,19 +1244,19 @@
         <v>23340</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>15642</v>
+        <v>14850</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>35377</v>
+        <v>35608</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.06360694020048807</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.04262923163165661</v>
+        <v>0.04046956166503118</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.09641301527527314</v>
+        <v>0.09704274153769241</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>13</v>
@@ -1265,19 +1265,19 @@
         <v>12464</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>6594</v>
+        <v>7444</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>21214</v>
+        <v>20963</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.03351858564126008</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01773201117914102</v>
+        <v>0.02001899454922224</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.05704868371392452</v>
+        <v>0.05637267718432863</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>35</v>
@@ -1286,19 +1286,19 @@
         <v>35804</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>25231</v>
+        <v>25286</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>48452</v>
+        <v>48317</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.04846235846650968</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.03415116723127645</v>
+        <v>0.03422604232659572</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.06558160043594528</v>
+        <v>0.065399099638199</v>
       </c>
     </row>
     <row r="12">
@@ -1315,19 +1315,19 @@
         <v>103627</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>86713</v>
+        <v>85924</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>121852</v>
+        <v>121341</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.282412743965786</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2363181838351832</v>
+        <v>0.2341673663099245</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.3320827366567857</v>
+        <v>0.3306898532213422</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>97</v>
@@ -1336,19 +1336,19 @@
         <v>98216</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>82443</v>
+        <v>81466</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>116113</v>
+        <v>115666</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.2641163182062294</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.2217006977165747</v>
+        <v>0.2190734618728105</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.3122450321564397</v>
+        <v>0.3110436890596144</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>196</v>
@@ -1357,19 +1357,19 @@
         <v>201842</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>178611</v>
+        <v>179468</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>227898</v>
+        <v>228525</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2732034761472409</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.2417586925782959</v>
+        <v>0.2429183419350152</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.3084703414096975</v>
+        <v>0.309319224910205</v>
       </c>
     </row>
     <row r="13">
@@ -1386,19 +1386,19 @@
         <v>162366</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>142856</v>
+        <v>142383</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>181041</v>
+        <v>182489</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.442493786346798</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3893242887025917</v>
+        <v>0.3880346440883387</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4933890314541581</v>
+        <v>0.4973341421957516</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>145</v>
@@ -1407,19 +1407,19 @@
         <v>148929</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>128921</v>
+        <v>131680</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>168246</v>
+        <v>168653</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4004926245684813</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3466867890628826</v>
+        <v>0.3541083337899703</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4524396827290444</v>
+        <v>0.4535327367660429</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>302</v>
@@ -1428,19 +1428,19 @@
         <v>311295</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>285383</v>
+        <v>283132</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>338818</v>
+        <v>337551</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4213530481179379</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3862801356610009</v>
+        <v>0.3832321456234844</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4586070264024247</v>
+        <v>0.4568921195151059</v>
       </c>
     </row>
     <row r="14">
@@ -1457,19 +1457,19 @@
         <v>73838</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>58408</v>
+        <v>59587</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>91026</v>
+        <v>93131</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2012295127768839</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1591795401926056</v>
+        <v>0.1623912423374312</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2480730487206977</v>
+        <v>0.2538094114209615</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>103</v>
@@ -1478,19 +1478,19 @@
         <v>107197</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>89992</v>
+        <v>91829</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>127623</v>
+        <v>126487</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2882692688649364</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.2420029802545508</v>
+        <v>0.2469421907226034</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.3431963699504993</v>
+        <v>0.3401420093437598</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>172</v>
@@ -1499,19 +1499,19 @@
         <v>181035</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>160058</v>
+        <v>158852</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>205603</v>
+        <v>204398</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.2450398413738251</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.216645892563204</v>
+        <v>0.2150133531629861</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.278294211403369</v>
+        <v>0.2766624185531921</v>
       </c>
     </row>
     <row r="15">
@@ -1603,19 +1603,19 @@
         <v>10278</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>5356</v>
+        <v>5452</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>18076</v>
+        <v>18021</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01894893652902855</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.009875681212035315</v>
+        <v>0.01005113293198045</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03332637375474608</v>
+        <v>0.03322557631553019</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>6</v>
@@ -1624,19 +1624,19 @@
         <v>6922</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2887</v>
+        <v>2944</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>14426</v>
+        <v>15499</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.04125578361961507</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01720866391614913</v>
+        <v>0.01754393053170855</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.08597960791996001</v>
+        <v>0.09237472758992556</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>18</v>
@@ -1645,19 +1645,19 @@
         <v>17200</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>10385</v>
+        <v>10413</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>26749</v>
+        <v>27286</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.02421905506023515</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01462330286782902</v>
+        <v>0.01466292865501429</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03766535262618256</v>
+        <v>0.03842174797134774</v>
       </c>
     </row>
     <row r="17">
@@ -1674,19 +1674,19 @@
         <v>46581</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>35362</v>
+        <v>33985</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>61363</v>
+        <v>61350</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.08588104805405115</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.06519706444511665</v>
+        <v>0.06265862338439369</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1131353796990848</v>
+        <v>0.1131097934946293</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>4</v>
@@ -1695,19 +1695,19 @@
         <v>4013</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>1013</v>
+        <v>1012</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>9209</v>
+        <v>9226</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.02391795643350432</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.006036166373210307</v>
+        <v>0.006031003859868466</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.05488644567401366</v>
+        <v>0.05498565348680949</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>51</v>
@@ -1716,19 +1716,19 @@
         <v>50594</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>38753</v>
+        <v>38342</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>65662</v>
+        <v>66339</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.07124191792175645</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.05456796108399219</v>
+        <v>0.05399022666466896</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.09245902065192076</v>
+        <v>0.09341313942373493</v>
       </c>
     </row>
     <row r="18">
@@ -1745,19 +1745,19 @@
         <v>147225</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>128531</v>
+        <v>125853</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>170614</v>
+        <v>168571</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2714372967887946</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2369714091650135</v>
+        <v>0.2320337383928538</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3145608286069502</v>
+        <v>0.3107939081879584</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>39</v>
@@ -1766,19 +1766,19 @@
         <v>40158</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>30753</v>
+        <v>29850</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>52865</v>
+        <v>53050</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2393489372522252</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1832908460715706</v>
+        <v>0.1779071763941737</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3150841841091264</v>
+        <v>0.3161835800049027</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>184</v>
@@ -1787,19 +1787,19 @@
         <v>187383</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>164062</v>
+        <v>164596</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>211907</v>
+        <v>209773</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.263856240732645</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2310170603352352</v>
+        <v>0.2317699431239365</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2983887947527682</v>
+        <v>0.29538437935302</v>
       </c>
     </row>
     <row r="19">
@@ -1816,19 +1816,19 @@
         <v>209489</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>187574</v>
+        <v>187953</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>230891</v>
+        <v>233694</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3862343494174681</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3458291851181671</v>
+        <v>0.3465271958219379</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4256929026156163</v>
+        <v>0.4308606762486972</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>60</v>
@@ -1837,19 +1837,19 @@
         <v>60287</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>48425</v>
+        <v>48843</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>71505</v>
+        <v>73095</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3593163587901665</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2886159996538257</v>
+        <v>0.2911083914258787</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4261761847793084</v>
+        <v>0.435654921400596</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>263</v>
@@ -1858,19 +1858,19 @@
         <v>269776</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>244119</v>
+        <v>244518</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>294262</v>
+        <v>295087</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3798748221991347</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3437471652101682</v>
+        <v>0.3443088266945868</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4143535697410791</v>
+        <v>0.4155154790798573</v>
       </c>
     </row>
     <row r="20">
@@ -1887,19 +1887,19 @@
         <v>128817</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>109796</v>
+        <v>109643</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>150039</v>
+        <v>149302</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2374983692106576</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2024295233756956</v>
+        <v>0.2021483940729625</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2766257013150284</v>
+        <v>0.2752681014101229</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>55</v>
@@ -1908,19 +1908,19 @@
         <v>56402</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>43981</v>
+        <v>44426</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>68489</v>
+        <v>69601</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3361609639044889</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2621339548532873</v>
+        <v>0.2647847409741351</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4082018060259938</v>
+        <v>0.4148276312958233</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>180</v>
@@ -1929,19 +1929,19 @@
         <v>185218</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>162554</v>
+        <v>160156</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>206976</v>
+        <v>208066</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2608079640862287</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2288941066477344</v>
+        <v>0.2255177003721578</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.2914456241244667</v>
+        <v>0.2929795921172403</v>
       </c>
     </row>
     <row r="21">
@@ -2033,19 +2033,19 @@
         <v>29302</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>19755</v>
+        <v>19617</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>41510</v>
+        <v>41732</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.02366212118789621</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.01595283074359734</v>
+        <v>0.01584160712622958</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.03352072268655073</v>
+        <v>0.03370010882086137</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>12</v>
@@ -2054,19 +2054,19 @@
         <v>11797</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>6577</v>
+        <v>6439</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>19389</v>
+        <v>19688</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01651636404165597</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.009208464859876746</v>
+        <v>0.009014054021559539</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02714397269275014</v>
+        <v>0.02756364228182788</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>41</v>
@@ -2075,19 +2075,19 @@
         <v>41099</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>30220</v>
+        <v>28919</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>55483</v>
+        <v>53590</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.02104814089127701</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01547664692772362</v>
+        <v>0.01481053588963708</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02841443707744504</v>
+        <v>0.02744532192841552</v>
       </c>
     </row>
     <row r="23">
@@ -2104,19 +2104,19 @@
         <v>78754</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>63043</v>
+        <v>62157</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>97349</v>
+        <v>98255</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.06359654285272318</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.05090924782707461</v>
+        <v>0.05019383240436678</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.07861262174876339</v>
+        <v>0.07934474062535563</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>36</v>
@@ -2125,19 +2125,19 @@
         <v>36821</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>27023</v>
+        <v>26820</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>50467</v>
+        <v>50075</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.05154879906193389</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.03783209687573746</v>
+        <v>0.03754808734447672</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.07065370340607109</v>
+        <v>0.07010513616583965</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>111</v>
@@ -2146,19 +2146,19 @@
         <v>115574</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>95830</v>
+        <v>95520</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>137315</v>
+        <v>137231</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.05918937308144016</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.04907780767729342</v>
+        <v>0.04891911435056973</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.0703232366026515</v>
+        <v>0.07028037140596124</v>
       </c>
     </row>
     <row r="24">
@@ -2175,19 +2175,19 @@
         <v>329205</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>300884</v>
+        <v>300429</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>362654</v>
+        <v>361683</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2658449751318564</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2429744542156062</v>
+        <v>0.2426077587205332</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2928560038954671</v>
+        <v>0.2920722631055099</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>155</v>
@@ -2196,19 +2196,19 @@
         <v>157795</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>135408</v>
+        <v>138109</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>179907</v>
+        <v>182550</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2209128213842634</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1895709948969349</v>
+        <v>0.1933525589854186</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2518706546748073</v>
+        <v>0.255569783511231</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>481</v>
@@ -2217,19 +2217,19 @@
         <v>487000</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>446836</v>
+        <v>450076</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>527100</v>
+        <v>523870</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2494084013472757</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2288391394929397</v>
+        <v>0.2304983218996232</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2699447839149635</v>
+        <v>0.2682910603700924</v>
       </c>
     </row>
     <row r="25">
@@ -2246,19 +2246,19 @@
         <v>534443</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>499701</v>
+        <v>496458</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>571490</v>
+        <v>570593</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.431582666943189</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4035267538849404</v>
+        <v>0.4009077513153179</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4614992513714605</v>
+        <v>0.4607748575820952</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>294</v>
@@ -2267,19 +2267,19 @@
         <v>303295</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>276860</v>
+        <v>276318</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>329830</v>
+        <v>329473</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.4246132294303324</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3876045010338094</v>
+        <v>0.3868449415760681</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.4617631003498095</v>
+        <v>0.4612630539547564</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>823</v>
@@ -2288,19 +2288,19 @@
         <v>837739</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>792010</v>
+        <v>796100</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>878589</v>
+        <v>880824</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.4290331859064997</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.4056139455171462</v>
+        <v>0.4077087923738958</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.4499537136153658</v>
+        <v>0.4510987083601587</v>
       </c>
     </row>
     <row r="26">
@@ -2317,19 +2317,19 @@
         <v>266630</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>236659</v>
+        <v>241543</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>297546</v>
+        <v>299204</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2153136938843352</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.1911106098303531</v>
+        <v>0.1950550725589275</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.240279146282696</v>
+        <v>0.241618510944212</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>197</v>
@@ -2338,19 +2338,19 @@
         <v>204577</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>180540</v>
+        <v>180737</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>231612</v>
+        <v>228038</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.2864087860818144</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.2527560532616384</v>
+        <v>0.2530318594844464</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3242566793606436</v>
+        <v>0.3192538755660444</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>462</v>
@@ -2359,19 +2359,19 @@
         <v>471208</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>434419</v>
+        <v>436191</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>509050</v>
+        <v>513673</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.2413208987735074</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2224800781177456</v>
+        <v>0.2233873539630638</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.2607011018610031</v>
+        <v>0.2630684345227689</v>
       </c>
     </row>
     <row r="27">
@@ -2463,19 +2463,19 @@
         <v>10599</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>4945</v>
+        <v>5016</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>19123</v>
+        <v>18950</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.03023535326879959</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.01410639957955017</v>
+        <v>0.01430912951391749</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.05454965322531298</v>
+        <v>0.05405578592189229</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>9</v>
@@ -2484,19 +2484,19 @@
         <v>9225</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>4261</v>
+        <v>4210</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>16541</v>
+        <v>16595</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01625082164616783</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.007504980483270794</v>
+        <v>0.007415402573144465</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.02913640292819414</v>
+        <v>0.02923323977022018</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>19</v>
@@ -2505,19 +2505,19 @@
         <v>19825</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>12468</v>
+        <v>12063</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>31339</v>
+        <v>30046</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.02158963603944244</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.01357819965678111</v>
+        <v>0.01313726546911109</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.03412933208008576</v>
+        <v>0.03272052942392658</v>
       </c>
     </row>
     <row r="29">
@@ -2534,19 +2534,19 @@
         <v>32585</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>22275</v>
+        <v>22928</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>44797</v>
+        <v>44721</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.09295232233583542</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.06354089461557912</v>
+        <v>0.06540574678358048</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.1277879573621854</v>
+        <v>0.1275715532305872</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>20</v>
@@ -2555,19 +2555,19 @@
         <v>23156</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>14763</v>
+        <v>14361</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>34818</v>
+        <v>35856</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.04078891933115389</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.02600528459488495</v>
+        <v>0.02529736146245343</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.06133283309312185</v>
+        <v>0.06316085629527533</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>52</v>
@@ -2576,19 +2576,19 @@
         <v>55740</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>42151</v>
+        <v>42154</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>71740</v>
+        <v>71555</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.06070311698028247</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.04590347502980099</v>
+        <v>0.04590716805007337</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.07812710443715999</v>
+        <v>0.0779261930632595</v>
       </c>
     </row>
     <row r="30">
@@ -2605,19 +2605,19 @@
         <v>101936</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>86247</v>
+        <v>85523</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>118846</v>
+        <v>119650</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2907857016506055</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.2460285717620778</v>
+        <v>0.2439645883909143</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.3390221838377799</v>
+        <v>0.3413161609575804</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>128</v>
@@ -2626,19 +2626,19 @@
         <v>132607</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>113057</v>
+        <v>113099</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>153965</v>
+        <v>152455</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.2335903611933491</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.199151595227476</v>
+        <v>0.1992257488853348</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2712126714323909</v>
+        <v>0.2685527749231472</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>225</v>
@@ -2647,19 +2647,19 @@
         <v>234544</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>207691</v>
+        <v>206784</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>264396</v>
+        <v>262709</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2554255799265437</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.2261817727946427</v>
+        <v>0.2251941009859199</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2879351102475963</v>
+        <v>0.2860982983262331</v>
       </c>
     </row>
     <row r="31">
@@ -2676,19 +2676,19 @@
         <v>148595</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>130885</v>
+        <v>131224</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>167449</v>
+        <v>169730</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.4238862082323725</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.3733654037826072</v>
+        <v>0.3743334183966821</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.4776680844297552</v>
+        <v>0.4841741727414285</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>250</v>
@@ -2697,19 +2697,19 @@
         <v>261366</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>238078</v>
+        <v>238557</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>284290</v>
+        <v>285858</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.4604008452368669</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.4193794218901679</v>
+        <v>0.4202233491588531</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.5007825471759724</v>
+        <v>0.5035441087284183</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>393</v>
@@ -2718,19 +2718,19 @@
         <v>409961</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>378765</v>
+        <v>381878</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>440108</v>
+        <v>439455</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.4464608095699372</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.4124867117078183</v>
+        <v>0.4158769066696785</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.4792917090391374</v>
+        <v>0.4785807750967014</v>
       </c>
     </row>
     <row r="32">
@@ -2747,19 +2747,19 @@
         <v>56839</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>44085</v>
+        <v>44159</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>71983</v>
+        <v>71724</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.1621404145123871</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.1257570127158368</v>
+        <v>0.125969087591978</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.2053408035203766</v>
+        <v>0.2046009818656251</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>131</v>
@@ -2768,19 +2768,19 @@
         <v>141338</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>121158</v>
+        <v>123259</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>161890</v>
+        <v>164399</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.2489690525924623</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.2134212583759352</v>
+        <v>0.2171229843406068</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.2851729464432187</v>
+        <v>0.2895921731396917</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>189</v>
@@ -2789,19 +2789,19 @@
         <v>198177</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>172647</v>
+        <v>173865</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>225744</v>
+        <v>222296</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.2158208574837941</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.1880180606283895</v>
+        <v>0.1893449091944453</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.2458419584572256</v>
+        <v>0.2420873239417367</v>
       </c>
     </row>
     <row r="33">
@@ -2893,19 +2893,19 @@
         <v>14304</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>8253</v>
+        <v>8735</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>22379</v>
+        <v>24175</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.04796820324192173</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.02767486921047568</v>
+        <v>0.02929377392047397</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.07504628180277283</v>
+        <v>0.08106898713301358</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>8</v>
@@ -2914,19 +2914,19 @@
         <v>7591</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>3782</v>
+        <v>3691</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>15170</v>
+        <v>14465</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.006078603719055372</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.003028467240888143</v>
+        <v>0.002955376733181358</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.01214838453812081</v>
+        <v>0.01158358922401847</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>23</v>
@@ -2935,19 +2935,19 @@
         <v>21895</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>13569</v>
+        <v>14175</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>32580</v>
+        <v>32048</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.01415347218759037</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.008771243426523724</v>
+        <v>0.009162991410679857</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.0210604508378343</v>
+        <v>0.02071696232230388</v>
       </c>
     </row>
     <row r="35">
@@ -2964,19 +2964,19 @@
         <v>31760</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>22812</v>
+        <v>22900</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>44538</v>
+        <v>43362</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1065040178535014</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.07649810161684682</v>
+        <v>0.07679455301504388</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.1493557433525061</v>
+        <v>0.1454105913638564</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>61</v>
@@ -2985,19 +2985,19 @@
         <v>61176</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>47209</v>
+        <v>46649</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>77844</v>
+        <v>77835</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.04898923342245161</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.03780430771107709</v>
+        <v>0.03735617902600378</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.06233676192523199</v>
+        <v>0.06232958142256922</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>94</v>
@@ -3006,19 +3006,19 @@
         <v>92935</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>76485</v>
+        <v>75919</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>112343</v>
+        <v>113364</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.06007609805154303</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.04944193884502091</v>
+        <v>0.0490763487918067</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.07262198100155509</v>
+        <v>0.07328170095184279</v>
       </c>
     </row>
     <row r="36">
@@ -3035,19 +3035,19 @@
         <v>97786</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>82920</v>
+        <v>83734</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>114590</v>
+        <v>114675</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.32792044705666</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.27806907877795</v>
+        <v>0.2807969613790435</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.3842713916308999</v>
+        <v>0.3845548855499454</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>293</v>
@@ -3056,19 +3056,19 @@
         <v>290169</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>261759</v>
+        <v>261879</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>321557</v>
+        <v>321269</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.2323657302500318</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.2096155158775183</v>
+        <v>0.2097111685609232</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2575012252707036</v>
+        <v>0.2572703365542977</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>393</v>
@@ -3077,19 +3077,19 @@
         <v>387955</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>355607</v>
+        <v>354605</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>425982</v>
+        <v>423071</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2507853804388679</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.2298744726338175</v>
+        <v>0.2292271804042586</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2753671259399407</v>
+        <v>0.2734855384361046</v>
       </c>
     </row>
     <row r="37">
@@ -3106,19 +3106,19 @@
         <v>123153</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>107319</v>
+        <v>107697</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>139361</v>
+        <v>139871</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.4129864831723921</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.359888891996308</v>
+        <v>0.3611543904271744</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.467339996444158</v>
+        <v>0.4690509377741821</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>557</v>
@@ -3127,19 +3127,19 @@
         <v>564627</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>526298</v>
+        <v>527500</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>597764</v>
+        <v>599032</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.4521498750666501</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.4214563261026766</v>
+        <v>0.4224193498424953</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.4786857249351323</v>
+        <v>0.4797013929388426</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>685</v>
@@ -3148,19 +3148,19 @@
         <v>687779</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>647440</v>
+        <v>647893</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>724708</v>
+        <v>724325</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.4446005253013176</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.4185241554468536</v>
+        <v>0.4188168627304229</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.4684720534451929</v>
+        <v>0.4682248699597465</v>
       </c>
     </row>
     <row r="38">
@@ -3177,19 +3177,19 @@
         <v>31198</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>22068</v>
+        <v>21276</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>43309</v>
+        <v>42426</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.1046208486755248</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.07400240417528094</v>
+        <v>0.07134676221535684</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.1452329115168238</v>
+        <v>0.1422720067231607</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>319</v>
@@ -3198,19 +3198,19 @@
         <v>325198</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>293652</v>
+        <v>295600</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>356834</v>
+        <v>355744</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.2604165575418111</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.2351544925019963</v>
+        <v>0.2367148810631284</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.2857508012013625</v>
+        <v>0.2848775975498976</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>349</v>
@@ -3219,19 +3219,19 @@
         <v>356396</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>322765</v>
+        <v>323064</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>388855</v>
+        <v>388618</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.2303845240206811</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.2086447367494358</v>
+        <v>0.2088380486758212</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.251366892842765</v>
+        <v>0.251213951808832</v>
       </c>
     </row>
     <row r="39">
@@ -3323,19 +3323,19 @@
         <v>72877</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>59072</v>
+        <v>56675</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>93519</v>
+        <v>90826</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.02229081492638858</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.01806848683231952</v>
+        <v>0.01733514768912228</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.02860486314252598</v>
+        <v>0.02778097981438198</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>41</v>
@@ -3344,19 +3344,19 @@
         <v>41576</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>30352</v>
+        <v>30744</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>55288</v>
+        <v>56037</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.01231123536594949</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.008987687145841514</v>
+        <v>0.009103688678465316</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.01637154193813573</v>
+        <v>0.01659353198651542</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>115</v>
@@ -3365,19 +3365,19 @@
         <v>114452</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>94959</v>
+        <v>94087</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>139013</v>
+        <v>134767</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.01722016341477887</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.01428723124963885</v>
+        <v>0.0141560546134109</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.02091547890882813</v>
+        <v>0.02027660778135167</v>
       </c>
     </row>
     <row r="41">
@@ -3394,19 +3394,19 @@
         <v>227737</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>202243</v>
+        <v>200162</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>256793</v>
+        <v>258415</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.06965816812348841</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.06186019135537688</v>
+        <v>0.06122355214060042</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.07854556188956062</v>
+        <v>0.07904153263896153</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>142</v>
@@ -3415,19 +3415,19 @@
         <v>145484</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>122065</v>
+        <v>125128</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>170795</v>
+        <v>171038</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.04308016249125441</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.03614528449637731</v>
+        <v>0.03705226427059741</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.05057511746514394</v>
+        <v>0.05064699979766421</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>366</v>
@@ -3436,19 +3436,19 @@
         <v>373222</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>336416</v>
+        <v>336921</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>413451</v>
+        <v>418436</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.05615381118956472</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.05061608480747522</v>
+        <v>0.05069215887435986</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.06220655370925106</v>
+        <v>0.06295659112663954</v>
       </c>
     </row>
     <row r="42">
@@ -3465,19 +3465,19 @@
         <v>902506</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>853343</v>
+        <v>847282</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>959920</v>
+        <v>953139</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.2760501254547049</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.2610125143922803</v>
+        <v>0.259158805824333</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.293611351904242</v>
+        <v>0.2915372387152792</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>780</v>
@@ -3486,19 +3486,19 @@
         <v>788433</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>740489</v>
+        <v>741622</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>838112</v>
+        <v>840984</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.2334670854474696</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.2192699474377323</v>
+        <v>0.2196054092170973</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.2481776176966896</v>
+        <v>0.2490281780442939</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>1663</v>
@@ -3507,19 +3507,19 @@
         <v>1690939</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>1628564</v>
+        <v>1617815</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>1761224</v>
+        <v>1762191</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.2544135670331871</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.2450287241417256</v>
+        <v>0.2434114545971306</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.264988388638122</v>
+        <v>0.2651338253406578</v>
       </c>
     </row>
     <row r="43">
@@ -3536,19 +3536,19 @@
         <v>1380443</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>1322527</v>
+        <v>1327611</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>1440765</v>
+        <v>1440980</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.4222371064941361</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.4045221749456345</v>
+        <v>0.406077130118464</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.4406875684004612</v>
+        <v>0.4407533885001664</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>1424</v>
@@ -3557,19 +3557,19 @@
         <v>1460208</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>1406081</v>
+        <v>1400669</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>1517377</v>
+        <v>1516121</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.4323898224059805</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.4163619561103332</v>
+        <v>0.4147593330912959</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.4493183695314661</v>
+        <v>0.448946377434068</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>2779</v>
@@ -3578,19 +3578,19 @@
         <v>2840652</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>2751824</v>
+        <v>2759066</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>2920651</v>
+        <v>2925983</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.4273957290566955</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.4140310666734846</v>
+        <v>0.4151206094300786</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.4394322685494713</v>
+        <v>0.4402344525776176</v>
       </c>
     </row>
     <row r="44">
@@ -3607,19 +3607,19 @@
         <v>685792</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>636629</v>
+        <v>639472</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>734117</v>
+        <v>733868</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.209763785001282</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.1947260133596128</v>
+        <v>0.1955958111249347</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.2245447888999454</v>
+        <v>0.2244687086944894</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>908</v>
@@ -3628,19 +3628,19 @@
         <v>941362</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>892048</v>
+        <v>889272</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>994015</v>
+        <v>997415</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.278751694289346</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.2641489109761171</v>
+        <v>0.2633269990166904</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.2943428161203159</v>
+        <v>0.2953498416531755</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>1578</v>
@@ -3649,19 +3649,19 @@
         <v>1627155</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>1558967</v>
+        <v>1560231</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>1702834</v>
+        <v>1702564</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.2448167293057738</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.2345573645079368</v>
+        <v>0.2347475806833662</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.2562032158221037</v>
+        <v>0.2561625267999447</v>
       </c>
     </row>
     <row r="45">
@@ -3995,19 +3995,19 @@
         <v>6385</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>2031</v>
+        <v>2013</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>15838</v>
+        <v>14982</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01467373773843119</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.004666975681205854</v>
+        <v>0.004627187513601722</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.03640004208881011</v>
+        <v>0.03443184919829775</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -4019,7 +4019,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>6011</v>
+        <v>6038</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.006369151714733052</v>
@@ -4028,7 +4028,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01923363517252464</v>
+        <v>0.01931927788431107</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>7</v>
@@ -4037,19 +4037,19 @@
         <v>8375</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>3392</v>
+        <v>3443</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>17687</v>
+        <v>19089</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.0112023116583509</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.004536943321742037</v>
+        <v>0.004605210191404144</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02365797905585974</v>
+        <v>0.02553318400743743</v>
       </c>
     </row>
     <row r="5">
@@ -4066,19 +4066,19 @@
         <v>14109</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>7902</v>
+        <v>7881</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>24592</v>
+        <v>23836</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.03242588900328276</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.0181609681621066</v>
+        <v>0.01811351129864688</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.05652013976556929</v>
+        <v>0.05478127318712778</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>3</v>
@@ -4087,19 +4087,19 @@
         <v>2909</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>942</v>
+        <v>938</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>7700</v>
+        <v>7783</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.009308568863873859</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.003013753478338245</v>
+        <v>0.003002854254459955</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.02463928013899408</v>
+        <v>0.02490323412782389</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>16</v>
@@ -4108,19 +4108,19 @@
         <v>17018</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>9863</v>
+        <v>9896</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>27249</v>
+        <v>27507</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.0227625454236623</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01319245626800655</v>
+        <v>0.01323614956956463</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.03644707483070183</v>
+        <v>0.03679266599144402</v>
       </c>
     </row>
     <row r="6">
@@ -4137,19 +4137,19 @@
         <v>77142</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>61505</v>
+        <v>62403</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>95488</v>
+        <v>97388</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1772921108487924</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1413555483701238</v>
+        <v>0.143419566640007</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2194573809867762</v>
+        <v>0.2238232777198917</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>32</v>
@@ -4158,19 +4158,19 @@
         <v>34465</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>24332</v>
+        <v>23290</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>48509</v>
+        <v>47109</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1102802458010405</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.07785788243993544</v>
+        <v>0.07452426702354216</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1552190452779572</v>
+        <v>0.1507381315778282</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>101</v>
@@ -4179,19 +4179,19 @@
         <v>111606</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>92015</v>
+        <v>91851</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>133754</v>
+        <v>133961</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1492802707236184</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1230763148738835</v>
+        <v>0.12285679003208</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1789043906228249</v>
+        <v>0.1791805122259743</v>
       </c>
     </row>
     <row r="7">
@@ -4208,19 +4208,19 @@
         <v>156072</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>135085</v>
+        <v>134478</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>178507</v>
+        <v>176380</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3586943953381558</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3104625756614786</v>
+        <v>0.309066326077145</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4102565981855159</v>
+        <v>0.4053680295257271</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>96</v>
@@ -4229,19 +4229,19 @@
         <v>105307</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>89157</v>
+        <v>89499</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>125791</v>
+        <v>123795</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3369620982446004</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2852836557078754</v>
+        <v>0.2863779637150872</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4025065982521915</v>
+        <v>0.3961203367882395</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>239</v>
@@ -4250,19 +4250,19 @@
         <v>261379</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>235168</v>
+        <v>233424</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>292482</v>
+        <v>287746</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3496100095908907</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3145516251836248</v>
+        <v>0.312219537633833</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3912122467715053</v>
+        <v>0.3848786886236293</v>
       </c>
     </row>
     <row r="8">
@@ -4279,19 +4279,19 @@
         <v>181403</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>159770</v>
+        <v>158556</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>203067</v>
+        <v>202658</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.4169138670713378</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.367194870795466</v>
+        <v>0.3644047478320314</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4667031572600543</v>
+        <v>0.4657633662397664</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>149</v>
@@ -4300,19 +4300,19 @@
         <v>167848</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>146542</v>
+        <v>149560</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>184984</v>
+        <v>186766</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5370799353757522</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4689073376424566</v>
+        <v>0.4785639078846302</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5919112833579465</v>
+        <v>0.5976161086851234</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>321</v>
@@ -4321,19 +4321,19 @@
         <v>349251</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>320216</v>
+        <v>319449</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>378157</v>
+        <v>379777</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.4671448626034777</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4283082785263274</v>
+        <v>0.4272825307046482</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5058080786363379</v>
+        <v>0.5079756220100174</v>
       </c>
     </row>
     <row r="9">
@@ -4425,19 +4425,19 @@
         <v>2738</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>848</v>
+        <v>856</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>7784</v>
+        <v>7494</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.006553071627877234</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.002030180851729556</v>
+        <v>0.002049450439643149</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01863273124142617</v>
+        <v>0.017938508525532</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>2</v>
@@ -4449,7 +4449,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>10984</v>
+        <v>10716</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.009241843191772023</v>
@@ -4458,7 +4458,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.03277687955934844</v>
+        <v>0.03197829722470621</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>5</v>
@@ -4467,19 +4467,19 @@
         <v>5835</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>1916</v>
+        <v>2020</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>14076</v>
+        <v>14303</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.007749851893239634</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.002545399527337115</v>
+        <v>0.002683547346650253</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01869520373680397</v>
+        <v>0.01899759442455988</v>
       </c>
     </row>
     <row r="11">
@@ -4496,19 +4496,19 @@
         <v>10734</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>5462</v>
+        <v>5264</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>18882</v>
+        <v>18221</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.02569335264748192</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.01307281442738191</v>
+        <v>0.0125991090669063</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.04519619908360772</v>
+        <v>0.04361491937500637</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>7</v>
@@ -4517,19 +4517,19 @@
         <v>7069</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>3019</v>
+        <v>3042</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>14100</v>
+        <v>13561</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.02109334019469413</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.009007507541336345</v>
+        <v>0.009078307569998218</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.04207448468861328</v>
+        <v>0.04046561694268826</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>18</v>
@@ -4538,19 +4538,19 @@
         <v>17803</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>11348</v>
+        <v>10905</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>28050</v>
+        <v>28245</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.02364587334584009</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01507304034410451</v>
+        <v>0.0144843842193242</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.0372564420757299</v>
+        <v>0.03751486514264293</v>
       </c>
     </row>
     <row r="12">
@@ -4567,19 +4567,19 @@
         <v>89956</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>72021</v>
+        <v>73003</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>108797</v>
+        <v>110094</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.2153184588212661</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1723892912241332</v>
+        <v>0.1747402348792891</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2604169089433296</v>
+        <v>0.2635226174679885</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>55</v>
@@ -4588,19 +4588,19 @@
         <v>60771</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>46948</v>
+        <v>47800</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>75846</v>
+        <v>75943</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1813435470785468</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1400937090633444</v>
+        <v>0.1426356266976705</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2263282165531472</v>
+        <v>0.2266168255202524</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>135</v>
@@ -4609,19 +4609,19 @@
         <v>150727</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>127216</v>
+        <v>129820</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>174852</v>
+        <v>175457</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.2001961239836358</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1689687602008156</v>
+        <v>0.1724267119175281</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2322386335217055</v>
+        <v>0.2330425614520522</v>
       </c>
     </row>
     <row r="13">
@@ -4638,19 +4638,19 @@
         <v>162854</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>142505</v>
+        <v>143256</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>186011</v>
+        <v>185161</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3898088600304113</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3411003169401003</v>
+        <v>0.3428982998974137</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4452363452350419</v>
+        <v>0.4432026846877643</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>90</v>
@@ -4659,19 +4659,19 @@
         <v>97396</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>82395</v>
+        <v>82003</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>114901</v>
+        <v>115663</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2906321139011071</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2458685520295101</v>
+        <v>0.2446992416544743</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3428696360201957</v>
+        <v>0.3451409125631754</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>234</v>
@@ -4680,19 +4680,19 @@
         <v>260250</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>233201</v>
+        <v>231584</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>287782</v>
+        <v>287918</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3456649936848162</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3097384920726722</v>
+        <v>0.307590211369655</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3822329490009219</v>
+        <v>0.3824132746548335</v>
       </c>
     </row>
     <row r="14">
@@ -4709,19 +4709,19 @@
         <v>151498</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>131708</v>
+        <v>131189</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>172751</v>
+        <v>175649</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3626262568729635</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.3152570641692414</v>
+        <v>0.3140150537370177</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4134974373807778</v>
+        <v>0.4204346185278736</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>149</v>
@@ -4730,19 +4730,19 @@
         <v>166784</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>147024</v>
+        <v>145637</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>186207</v>
+        <v>185177</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.4976891556338799</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.4387233645517947</v>
+        <v>0.4345855836758151</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.5556471115382156</v>
+        <v>0.5525752330649538</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>285</v>
@@ -4751,19 +4751,19 @@
         <v>318282</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>290163</v>
+        <v>287466</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>345568</v>
+        <v>347600</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.4227431570924682</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.3853948130797402</v>
+        <v>0.381813719460309</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4589839541487615</v>
+        <v>0.4616831717743393</v>
       </c>
     </row>
     <row r="15">
@@ -4855,19 +4855,19 @@
         <v>5681</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>1941</v>
+        <v>2002</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>11757</v>
+        <v>11475</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.009025582293716123</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.003083757522185329</v>
+        <v>0.003181233739495451</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01867873726687898</v>
+        <v>0.01823191831609314</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>1</v>
@@ -4879,7 +4879,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>5030</v>
+        <v>4533</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.003476077633252588</v>
@@ -4888,7 +4888,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01933845515102431</v>
+        <v>0.01742462624085057</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>7</v>
@@ -4897,19 +4897,19 @@
         <v>6585</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2773</v>
+        <v>2753</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>13164</v>
+        <v>12360</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.007402740614336027</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.003117108619176341</v>
+        <v>0.003094625158829222</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01479849986001138</v>
+        <v>0.01389445706220509</v>
       </c>
     </row>
     <row r="17">
@@ -4926,19 +4926,19 @@
         <v>22831</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>14437</v>
+        <v>14859</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>33917</v>
+        <v>34750</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.03627342013600628</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.02293699951583657</v>
+        <v>0.023607013575149</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.05388644498394188</v>
+        <v>0.05520953512467389</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>10</v>
@@ -4947,19 +4947,19 @@
         <v>11308</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>5504</v>
+        <v>5334</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>20601</v>
+        <v>20967</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.04346910913198915</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.0211598726686372</v>
+        <v>0.02050436017198057</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.07919512035738614</v>
+        <v>0.08060152327104962</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>32</v>
@@ -4968,19 +4968,19 @@
         <v>34139</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>24284</v>
+        <v>23390</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>47511</v>
+        <v>47851</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.03837765550997249</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.02729973247111508</v>
+        <v>0.0262943303632687</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.05341055641911669</v>
+        <v>0.0537928772826733</v>
       </c>
     </row>
     <row r="18">
@@ -4997,19 +4997,19 @@
         <v>133101</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>112708</v>
+        <v>113297</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>155331</v>
+        <v>156013</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2114677867002712</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1790686202106527</v>
+        <v>0.1800039710393857</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2467869565338038</v>
+        <v>0.2478704086912979</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>36</v>
@@ -5018,19 +5018,19 @@
         <v>37839</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>27569</v>
+        <v>27366</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>50037</v>
+        <v>51688</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1454637043372302</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1059817913646766</v>
+        <v>0.1052032866984602</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.1923553298246324</v>
+        <v>0.1986997673518414</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>165</v>
@@ -5039,19 +5039,19 @@
         <v>170940</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>147557</v>
+        <v>147884</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>194164</v>
+        <v>198184</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.1921662125199492</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.1658795876987852</v>
+        <v>0.1662473466696708</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2182740450026306</v>
+        <v>0.2227925851694095</v>
       </c>
     </row>
     <row r="19">
@@ -5068,19 +5068,19 @@
         <v>230667</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>205964</v>
+        <v>206619</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>257456</v>
+        <v>258246</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.366477715967775</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3272307674402268</v>
+        <v>0.3282718324941699</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4090396848230258</v>
+        <v>0.4102958855844225</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>76</v>
@@ -5089,19 +5089,19 @@
         <v>80698</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>65973</v>
+        <v>66162</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>96385</v>
+        <v>96462</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3102232386217624</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.253615907672661</v>
+        <v>0.2543443732895764</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3705279670000619</v>
+        <v>0.3708233743264067</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>285</v>
@@ -5110,19 +5110,19 @@
         <v>311365</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>280872</v>
+        <v>282365</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>341935</v>
+        <v>346943</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3500272188379596</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3157484504557854</v>
+        <v>0.3174269698233236</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3843940689425544</v>
+        <v>0.3900232097299093</v>
       </c>
     </row>
     <row r="20">
@@ -5139,19 +5139,19 @@
         <v>237136</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>210106</v>
+        <v>211552</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>260512</v>
+        <v>261250</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.3767554949022314</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.3338113630744616</v>
+        <v>0.3361096247814188</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.4138954653604969</v>
+        <v>0.4150684815918306</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>121</v>
@@ -5160,19 +5160,19 @@
         <v>129380</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>112615</v>
+        <v>112857</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>146817</v>
+        <v>146925</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.4973678702757657</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4329195497309146</v>
+        <v>0.4338500115952169</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5643997959401775</v>
+        <v>0.5648141497715213</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>346</v>
@@ -5181,19 +5181,19 @@
         <v>366515</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>334640</v>
+        <v>332890</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>396062</v>
+        <v>397579</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.4120261725177827</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.3761930776355429</v>
+        <v>0.3742256645133721</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.4452414440633523</v>
+        <v>0.44694692766738</v>
       </c>
     </row>
     <row r="21">
@@ -5285,19 +5285,19 @@
         <v>18400</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>11468</v>
+        <v>11431</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>29386</v>
+        <v>29378</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01591706171937143</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.009920255118839611</v>
+        <v>0.009888233891717604</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02542076826452867</v>
+        <v>0.02541406324351751</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>10</v>
@@ -5306,19 +5306,19 @@
         <v>10044</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>5012</v>
+        <v>4893</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>18112</v>
+        <v>17210</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01316728968492667</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.006570231864595274</v>
+        <v>0.00641406421584548</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.02374378866357018</v>
+        <v>0.02256147611160508</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>28</v>
@@ -5327,19 +5327,19 @@
         <v>28444</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>18744</v>
+        <v>19539</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>40174</v>
+        <v>40403</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01482390555942887</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.009768620559078954</v>
+        <v>0.01018274708860061</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.02093694973186292</v>
+        <v>0.0210563845672683</v>
       </c>
     </row>
     <row r="23">
@@ -5356,19 +5356,19 @@
         <v>47159</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>34691</v>
+        <v>35346</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>61956</v>
+        <v>62890</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.04079510756412364</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.03001012633102567</v>
+        <v>0.03057667469045281</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.05359611163650378</v>
+        <v>0.05440349620277362</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>21</v>
@@ -5377,19 +5377,19 @@
         <v>24348</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>15327</v>
+        <v>15285</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>36386</v>
+        <v>36421</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.03191910276040275</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.02009306801965947</v>
+        <v>0.02003737012607981</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.04770016546851916</v>
+        <v>0.04774595949388281</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>66</v>
@@ -5398,19 +5398,19 @@
         <v>71507</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>54646</v>
+        <v>56557</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>90128</v>
+        <v>90884</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.03726650257239147</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.02847911988053847</v>
+        <v>0.02947531760819134</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.04697128335982329</v>
+        <v>0.047365341230197</v>
       </c>
     </row>
     <row r="24">
@@ -5427,19 +5427,19 @@
         <v>271417</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>242860</v>
+        <v>241023</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>301976</v>
+        <v>299690</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.2347924738636793</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2100889194627541</v>
+        <v>0.2084995214073296</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2612279347140714</v>
+        <v>0.259249798605647</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>122</v>
@@ -5448,19 +5448,19 @@
         <v>131453</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>111040</v>
+        <v>110251</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>155094</v>
+        <v>151427</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.172327998631403</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.145567679688236</v>
+        <v>0.1445339873789375</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.2033203907452224</v>
+        <v>0.1985137145186038</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>379</v>
@@ -5469,19 +5469,19 @@
         <v>402870</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>366693</v>
+        <v>365143</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>441047</v>
+        <v>439738</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.2099600786605873</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.1911063130045171</v>
+        <v>0.1902981705844404</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.229856606257541</v>
+        <v>0.2291742298210129</v>
       </c>
     </row>
     <row r="25">
@@ -5498,19 +5498,19 @@
         <v>407477</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>376427</v>
+        <v>373010</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>441995</v>
+        <v>438402</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.352492653837661</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3256326101360965</v>
+        <v>0.3226761479303317</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3823526248565358</v>
+        <v>0.3792441509892821</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>235</v>
@@ -5519,19 +5519,19 @@
         <v>258638</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>230826</v>
+        <v>231472</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>284520</v>
+        <v>285681</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3390612025423793</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.302601371388256</v>
+        <v>0.3034485607525248</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3729916875663874</v>
+        <v>0.3745134182132203</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>609</v>
@@ -5540,19 +5540,19 @@
         <v>666115</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>621977</v>
+        <v>624450</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>707995</v>
+        <v>707683</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3471530571232844</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3241500995362434</v>
+        <v>0.3254387085252146</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3689795790783393</v>
+        <v>0.3688165951572209</v>
       </c>
     </row>
     <row r="26">
@@ -5569,19 +5569,19 @@
         <v>411535</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>377593</v>
+        <v>379971</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>445506</v>
+        <v>444901</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.3560027030151646</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.3266406552691129</v>
+        <v>0.3286978493550959</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.3853896057670708</v>
+        <v>0.3848662643523874</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>320</v>
@@ -5590,19 +5590,19 @@
         <v>338323</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>310653</v>
+        <v>312753</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>367553</v>
+        <v>367583</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.4435244063808883</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.4072514402401403</v>
+        <v>0.410003915245208</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.4818439697138223</v>
+        <v>0.4818829181640934</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>706</v>
@@ -5611,19 +5611,19 @@
         <v>749858</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>708691</v>
+        <v>702435</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>791506</v>
+        <v>797653</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.390796456084308</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.3693422318093677</v>
+        <v>0.3660819575098774</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.4125020910270779</v>
+        <v>0.4157058344380868</v>
       </c>
     </row>
     <row r="27">
@@ -5715,19 +5715,19 @@
         <v>9909</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>4836</v>
+        <v>4819</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>16952</v>
+        <v>18350</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01944793473686019</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.009490697950570649</v>
+        <v>0.009458263716776416</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.03326929110648839</v>
+        <v>0.03601379847060542</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>8</v>
@@ -5736,19 +5736,19 @@
         <v>8288</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>4012</v>
+        <v>3535</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>15714</v>
+        <v>15639</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01090016456078762</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.005276411055973143</v>
+        <v>0.004648574599329163</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.02066667901505877</v>
+        <v>0.02056795918604438</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>18</v>
@@ -5757,19 +5757,19 @@
         <v>18197</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>11158</v>
+        <v>10500</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>28173</v>
+        <v>28062</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01432982580583736</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.008786399040536094</v>
+        <v>0.008268530724538177</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.02218494510933765</v>
+        <v>0.0220979865307903</v>
       </c>
     </row>
     <row r="29">
@@ -5786,19 +5786,19 @@
         <v>25570</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>17027</v>
+        <v>16017</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>37707</v>
+        <v>38284</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.05018396159019867</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.03341764732520597</v>
+        <v>0.03143478956750466</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.07400286237384417</v>
+        <v>0.07513560802746447</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>23</v>
@@ -5807,19 +5807,19 @@
         <v>23769</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>15517</v>
+        <v>15622</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>35016</v>
+        <v>35528</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.03125957176477887</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.02040758410560978</v>
+        <v>0.02054501883149204</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.04605056920774787</v>
+        <v>0.04672433445507162</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>47</v>
@@ -5828,19 +5828,19 @@
         <v>49339</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>37122</v>
+        <v>37075</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>63423</v>
+        <v>65503</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.03885269196262178</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.02923184330745742</v>
+        <v>0.02919534746826824</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.04994312768459785</v>
+        <v>0.05158100947302168</v>
       </c>
     </row>
     <row r="30">
@@ -5857,19 +5857,19 @@
         <v>114916</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>97023</v>
+        <v>94912</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>137881</v>
+        <v>133267</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2255335476573394</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1904181307983704</v>
+        <v>0.1862751553382944</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2706055423740245</v>
+        <v>0.2615505149856838</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>118</v>
@@ -5878,19 +5878,19 @@
         <v>129786</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>109763</v>
+        <v>109138</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>152426</v>
+        <v>152644</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1706871213186421</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1443537056326945</v>
+        <v>0.143532371465222</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2004628432719046</v>
+        <v>0.2007492321030114</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>231</v>
@@ -5899,19 +5899,19 @@
         <v>244701</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>216919</v>
+        <v>217326</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>273016</v>
+        <v>277246</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.1926934058780771</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1708157252853828</v>
+        <v>0.171136031093873</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.2149903944884926</v>
+        <v>0.2183208092150206</v>
       </c>
     </row>
     <row r="31">
@@ -5928,19 +5928,19 @@
         <v>167877</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>146646</v>
+        <v>146205</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>189744</v>
+        <v>187776</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.3294762764983823</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.2878074871922586</v>
+        <v>0.2869423971666933</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.3723919806441474</v>
+        <v>0.3685292409416007</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>233</v>
@@ -5949,19 +5949,19 @@
         <v>249458</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>219221</v>
+        <v>224815</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>275429</v>
+        <v>278760</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.3280735218596115</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.2883078577038716</v>
+        <v>0.2956641072597057</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.3622289186785408</v>
+        <v>0.366609666473958</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>393</v>
@@ -5970,19 +5970,19 @@
         <v>417335</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>384770</v>
+        <v>381684</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>454180</v>
+        <v>450537</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.3286363555720074</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.3029925593603757</v>
+        <v>0.3005625377105782</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.3576501602993107</v>
+        <v>0.3547816247409795</v>
       </c>
     </row>
     <row r="32">
@@ -5999,19 +5999,19 @@
         <v>191256</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>168725</v>
+        <v>169875</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>213817</v>
+        <v>214218</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.3753582795172195</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.3311406988724662</v>
+        <v>0.3333972976151381</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.4196383563847915</v>
+        <v>0.4204243464080421</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>320</v>
@@ -6020,19 +6020,19 @@
         <v>349071</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>320155</v>
+        <v>321866</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>377894</v>
+        <v>376741</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.45907962049618</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.4210503622476056</v>
+        <v>0.4233003202132961</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.496986203178252</v>
+        <v>0.4954690519774425</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>499</v>
@@ -6041,19 +6041,19 @@
         <v>540327</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>504053</v>
+        <v>502777</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>576846</v>
+        <v>575170</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.4254877207814564</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.3969235853291254</v>
+        <v>0.3959185400444821</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.454245490793469</v>
+        <v>0.452925680189936</v>
       </c>
     </row>
     <row r="33">
@@ -6145,19 +6145,19 @@
         <v>12494</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>6808</v>
+        <v>6842</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>20486</v>
+        <v>19541</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.04681560704688327</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.02550984270270442</v>
+        <v>0.02563533630112802</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.07676184369721832</v>
+        <v>0.07321863821299797</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>12</v>
@@ -6166,19 +6166,19 @@
         <v>12127</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>6666</v>
+        <v>6843</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>21275</v>
+        <v>20821</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.01093141591458023</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.006009208836041833</v>
+        <v>0.006168512013224158</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.0191775645499053</v>
+        <v>0.01876865157379942</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>25</v>
@@ -6187,19 +6187,19 @@
         <v>24621</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>16134</v>
+        <v>16327</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>37058</v>
+        <v>35721</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.01789015094257461</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.01172362940502141</v>
+        <v>0.01186364027019794</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.02692683634311401</v>
+        <v>0.02595534090979624</v>
       </c>
     </row>
     <row r="35">
@@ -6216,19 +6216,19 @@
         <v>27366</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>19173</v>
+        <v>18378</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>37814</v>
+        <v>38698</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.1025411026812732</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.07184164687177809</v>
+        <v>0.06886184764581914</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.141688289219304</v>
+        <v>0.1449997272140198</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>33</v>
@@ -6237,19 +6237,19 @@
         <v>34554</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>25131</v>
+        <v>23345</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>49049</v>
+        <v>47803</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.03114825222627517</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.02265403407660388</v>
+        <v>0.02104352713232531</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.04421402486894579</v>
+        <v>0.04309097307268713</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>60</v>
@@ -6258,19 +6258,19 @@
         <v>61921</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>47141</v>
+        <v>48194</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>79281</v>
+        <v>79040</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.04499289839310307</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.0342539004918699</v>
+        <v>0.03501869228057694</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.05760710474070254</v>
+        <v>0.05743241669126457</v>
       </c>
     </row>
     <row r="36">
@@ -6287,19 +6287,19 @@
         <v>93409</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>78571</v>
+        <v>78489</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>109702</v>
+        <v>109186</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.3499995877275766</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.294403671020403</v>
+        <v>0.2940957914883126</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.4110499732057384</v>
+        <v>0.4091172695141193</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>180</v>
@@ -6308,19 +6308,19 @@
         <v>188787</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>162848</v>
+        <v>165983</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>214759</v>
+        <v>217145</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1701778491058677</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1467953520583388</v>
+        <v>0.1496218550085201</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.1935900750003172</v>
+        <v>0.1957404526400777</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>273</v>
@@ -6329,19 +6329,19 @@
         <v>282196</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>252511</v>
+        <v>252995</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>314303</v>
+        <v>311593</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2050492448892683</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.1834801913412649</v>
+        <v>0.1838318446348667</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2283789499994034</v>
+        <v>0.2264098458347175</v>
       </c>
     </row>
     <row r="37">
@@ -6358,19 +6358,19 @@
         <v>78131</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>64607</v>
+        <v>65465</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>93755</v>
+        <v>93990</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.2927556550456024</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.2420803602891621</v>
+        <v>0.2452955710053141</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.3512964862131159</v>
+        <v>0.3521764287520082</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>368</v>
@@ -6379,19 +6379,19 @@
         <v>390644</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>355071</v>
+        <v>360222</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>421448</v>
+        <v>424886</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.3521378175517115</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.3200705598707195</v>
+        <v>0.3247137583874674</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.3799051214697123</v>
+        <v>0.3830038642595194</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>446</v>
@@ -6400,19 +6400,19 @@
         <v>468776</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>433871</v>
+        <v>434863</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>503444</v>
+        <v>505198</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.3406223083196439</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.3152595846762015</v>
+        <v>0.3159804734615275</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.3658130958179127</v>
+        <v>0.3670875493688343</v>
       </c>
     </row>
     <row r="38">
@@ -6429,19 +6429,19 @@
         <v>55482</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>41766</v>
+        <v>43210</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>68162</v>
+        <v>70323</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.2078880474986645</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.1564979039513286</v>
+        <v>0.1619050074269092</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.2554001553762213</v>
+        <v>0.2634973907662689</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>451</v>
@@ -6450,19 +6450,19 @@
         <v>483238</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>450971</v>
+        <v>449518</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>518584</v>
+        <v>516987</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.4356046652015654</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.4065175765401178</v>
+        <v>0.4052080780111983</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.4674659307033061</v>
+        <v>0.4660267919657968</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>505</v>
@@ -6471,19 +6471,19 @@
         <v>538720</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>504005</v>
+        <v>505764</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>577370</v>
+        <v>577251</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.3914453974554102</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.3662205781013281</v>
+        <v>0.3674985746206491</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.419528916809417</v>
+        <v>0.4194429425010501</v>
       </c>
     </row>
     <row r="39">
@@ -6575,19 +6575,19 @@
         <v>55607</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>43022</v>
+        <v>41197</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>74106</v>
+        <v>72015</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.01628449360986438</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.01259899055186299</v>
+        <v>0.01206466013943137</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.02170189553825302</v>
+        <v>0.02108979504072043</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>35</v>
@@ -6596,19 +6596,19 @@
         <v>36451</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>25715</v>
+        <v>25665</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>50079</v>
+        <v>49864</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.01029599467595399</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.007263584169896396</v>
+        <v>0.007249262925295963</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.01414552838871752</v>
+        <v>0.0140846657208398</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>90</v>
@@ -6617,19 +6617,19 @@
         <v>92058</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>74665</v>
+        <v>73383</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>113438</v>
+        <v>112921</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.01323617513092265</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.01073543956074645</v>
+        <v>0.01055117423823915</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.01631030570865745</v>
+        <v>0.01623593496136617</v>
       </c>
     </row>
     <row r="41">
@@ -6646,19 +6646,19 @@
         <v>147769</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>125489</v>
+        <v>124235</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>174324</v>
+        <v>175433</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.04327438914631179</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.03674960020741288</v>
+        <v>0.03638246748060564</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.05105091567871713</v>
+        <v>0.05137571357866088</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>97</v>
@@ -6667,19 +6667,19 @@
         <v>103957</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>83364</v>
+        <v>84870</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>126810</v>
+        <v>126068</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.0293638773039465</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.02354719472639026</v>
+        <v>0.02397262170887083</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.03581898836432349</v>
+        <v>0.03560941404818056</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>239</v>
@@ -6688,19 +6688,19 @@
         <v>251726</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>220897</v>
+        <v>221214</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>287230</v>
+        <v>286236</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.03619353787313121</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.03176097199930802</v>
+        <v>0.03180649027174121</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.04129839038421593</v>
+        <v>0.04115544357803585</v>
       </c>
     </row>
     <row r="42">
@@ -6717,19 +6717,19 @@
         <v>779940</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>730638</v>
+        <v>732501</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>833700</v>
+        <v>834998</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.2284063399653894</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.21396816719354</v>
+        <v>0.214513740453497</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.2441499372988412</v>
+        <v>0.244530147176681</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>543</v>
@@ -6738,19 +6738,19 @@
         <v>583101</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>543383</v>
+        <v>541974</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>629837</v>
+        <v>630235</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.1647040599300391</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.153485244100834</v>
+        <v>0.1530873123091682</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.1779052309729417</v>
+        <v>0.1780177294969578</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>1284</v>
@@ -6759,19 +6759,19 @@
         <v>1363040</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>1291216</v>
+        <v>1298936</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>1433523</v>
+        <v>1431792</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.1959800442399462</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.1856529885614036</v>
+        <v>0.1867629963889368</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.2061140728720868</v>
+        <v>0.2058652118423948</v>
       </c>
     </row>
     <row r="43">
@@ -6788,19 +6788,19 @@
         <v>1203078</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>1146321</v>
+        <v>1145836</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>1269138</v>
+        <v>1260804</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.3523229780758396</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.3357016360771919</v>
+        <v>0.3355594950899272</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.371668585738105</v>
+        <v>0.3692280218299885</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>1098</v>
@@ -6809,19 +6809,19 @@
         <v>1182141</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>1125563</v>
+        <v>1127104</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>1246842</v>
+        <v>1235890</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.3339104529534666</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.3179292855010076</v>
+        <v>0.3183645037402612</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.3521862274599468</v>
+        <v>0.3490927097359202</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>2206</v>
@@ -6830,19 +6830,19 @@
         <v>2385219</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>2310166</v>
+        <v>2293762</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>2470689</v>
+        <v>2466653</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.3429504723454498</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.3321592200404476</v>
+        <v>0.3298005908051207</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.3552394844797891</v>
+        <v>0.3546591815073756</v>
       </c>
     </row>
     <row r="44">
@@ -6859,19 +6859,19 @@
         <v>1228309</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>1164763</v>
+        <v>1172333</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>1283936</v>
+        <v>1285314</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.3597117992025949</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.3411021793060205</v>
+        <v>0.3433191998883068</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.3760023724505082</v>
+        <v>0.3764057564723844</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>1510</v>
@@ -6880,19 +6880,19 @@
         <v>1634644</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>1572438</v>
+        <v>1576815</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>1688985</v>
+        <v>1695959</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.4617256151365938</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.4441548080405827</v>
+        <v>0.4453909971114166</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.4770748059974307</v>
+        <v>0.4790447511372083</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>2662</v>
@@ -6901,19 +6901,19 @@
         <v>2862953</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>2773472</v>
+        <v>2778461</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>2947391</v>
+        <v>2951613</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.4116397704105501</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.3987740838988961</v>
+        <v>0.3994914212921001</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.4237804443100267</v>
+        <v>0.4243874879019782</v>
       </c>
     </row>
     <row r="45">
@@ -7250,7 +7250,7 @@
         <v>0</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>7112</v>
+        <v>7098</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.004726417921165971</v>
@@ -7259,7 +7259,7 @@
         <v>0</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.01657434501305531</v>
+        <v>0.01654257056567973</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>2</v>
@@ -7271,7 +7271,7 @@
         <v>0</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>8769</v>
+        <v>9857</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.007376885846187963</v>
@@ -7280,7 +7280,7 @@
         <v>0</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02534151575155338</v>
+        <v>0.02848407746447359</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>4</v>
@@ -7289,19 +7289,19 @@
         <v>4581</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>979</v>
+        <v>1047</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>11408</v>
+        <v>12204</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.005909676178157939</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.001262695940706952</v>
+        <v>0.001351159943434087</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.01471683343536914</v>
+        <v>0.01574458145561667</v>
       </c>
     </row>
     <row r="5">
@@ -7318,19 +7318,19 @@
         <v>11353</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>5236</v>
+        <v>5009</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>21405</v>
+        <v>20676</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.02645918194453158</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.01220141478598828</v>
+        <v>0.0116728931873306</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.04988482461221495</v>
+        <v>0.04818603979409296</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>8</v>
@@ -7339,19 +7339,19 @@
         <v>8213</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>3830</v>
+        <v>3427</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>15227</v>
+        <v>15133</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.02373420193533074</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.01106780281176434</v>
+        <v>0.009902776775515862</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.04400276040011214</v>
+        <v>0.04373030105046459</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>17</v>
@@ -7360,19 +7360,19 @@
         <v>19567</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>11456</v>
+        <v>11418</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>30703</v>
+        <v>29220</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.02524265898057299</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.01477914364459594</v>
+        <v>0.01472982767065583</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.03960955717102034</v>
+        <v>0.0376967614533337</v>
       </c>
     </row>
     <row r="6">
@@ -7389,19 +7389,19 @@
         <v>76373</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>60824</v>
+        <v>59908</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>94818</v>
+        <v>93941</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.1779879691403639</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1417494424126783</v>
+        <v>0.139615605346381</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.2209741577824324</v>
+        <v>0.2189299916421919</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>51</v>
@@ -7410,19 +7410,19 @@
         <v>51341</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>40473</v>
+        <v>38557</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>66712</v>
+        <v>65018</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.1483644996567136</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1169571062404708</v>
+        <v>0.1114205642171668</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.1927813886022537</v>
+        <v>0.1878856601212155</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>121</v>
@@ -7431,19 +7431,19 @@
         <v>127715</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>108831</v>
+        <v>108145</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>151347</v>
+        <v>151904</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.1647630534428883</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1404021416271128</v>
+        <v>0.1395167660403005</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.1952504306517389</v>
+        <v>0.195969477035508</v>
       </c>
     </row>
     <row r="7">
@@ -7460,19 +7460,19 @@
         <v>185598</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>165983</v>
+        <v>166845</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>210155</v>
+        <v>211243</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.4325366123291839</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3868241418721846</v>
+        <v>0.3888318463739141</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4897660448108027</v>
+        <v>0.4923024663124831</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>136</v>
@@ -7481,19 +7481,19 @@
         <v>143873</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>125692</v>
+        <v>126792</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>162165</v>
+        <v>164095</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4157593448380785</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3632200929290323</v>
+        <v>0.3663985437191341</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4686185311708441</v>
+        <v>0.4741959093436732</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>310</v>
@@ -7502,19 +7502,19 @@
         <v>329471</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>302814</v>
+        <v>300608</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>359360</v>
+        <v>357194</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4250466743823028</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3906565329699262</v>
+        <v>0.3878110118208178</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4636061415092826</v>
+        <v>0.4608112187491942</v>
       </c>
     </row>
     <row r="8">
@@ -7531,19 +7531,19 @@
         <v>153739</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>133687</v>
+        <v>133475</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>176186</v>
+        <v>175101</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.3582898186647547</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3115577728599263</v>
+        <v>0.3110642120892807</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4106011862197558</v>
+        <v>0.4080731233502548</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>134</v>
@@ -7552,19 +7552,19 @@
         <v>140069</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>121425</v>
+        <v>121864</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>157681</v>
+        <v>158940</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.4047650677236893</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.3508907418913471</v>
+        <v>0.3521583181138453</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.4556597851781923</v>
+        <v>0.4592994067935095</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>275</v>
@@ -7573,19 +7573,19 @@
         <v>293808</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>262987</v>
+        <v>265507</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>320226</v>
+        <v>321967</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.379037937016078</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.339276641189796</v>
+        <v>0.3425272535125832</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4131190943016549</v>
+        <v>0.4153658770046457</v>
       </c>
     </row>
     <row r="9">
@@ -7677,19 +7677,19 @@
         <v>3939</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>983</v>
+        <v>993</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>9092</v>
+        <v>9079</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01047295539150592</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.002614681355485463</v>
+        <v>0.002640172500051754</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.02417120148659449</v>
+        <v>0.02413862272692832</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>2</v>
@@ -7701,7 +7701,7 @@
         <v>0</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>7637</v>
+        <v>6751</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.006030050356532026</v>
@@ -7710,7 +7710,7 @@
         <v>0</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.02075852637526536</v>
+        <v>0.01835068100177683</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>6</v>
@@ -7719,19 +7719,19 @@
         <v>6158</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>2206</v>
+        <v>2234</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>12241</v>
+        <v>13092</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.008276068730908233</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.002965519651779032</v>
+        <v>0.003002028908218376</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01645151859800483</v>
+        <v>0.01759603013705974</v>
       </c>
     </row>
     <row r="11">
@@ -7748,19 +7748,19 @@
         <v>12707</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>6707</v>
+        <v>6968</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>21084</v>
+        <v>21832</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.03378380858001585</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.0178321671758161</v>
+        <v>0.01852629505335613</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.05605470461784614</v>
+        <v>0.05804150220630692</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>9</v>
@@ -7769,19 +7769,19 @@
         <v>9412</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>4729</v>
+        <v>4188</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>17570</v>
+        <v>16779</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.02558251882743508</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.01285389844055633</v>
+        <v>0.01138307684228992</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.04775541984514837</v>
+        <v>0.04560554493850816</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>21</v>
@@ -7790,19 +7790,19 @@
         <v>22119</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>13979</v>
+        <v>14179</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>31662</v>
+        <v>33115</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.02972851054521394</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.01878751499999312</v>
+        <v>0.01905699324923491</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.042554049519784</v>
+        <v>0.04450589630846801</v>
       </c>
     </row>
     <row r="12">
@@ -7819,19 +7819,19 @@
         <v>63792</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>49604</v>
+        <v>49470</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>80568</v>
+        <v>80621</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.1695972606289802</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.1318762416428707</v>
+        <v>0.1315203620829399</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.2141973883623488</v>
+        <v>0.2143390746455566</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>65</v>
@@ -7840,19 +7840,19 @@
         <v>65097</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>50283</v>
+        <v>50430</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>79672</v>
+        <v>78978</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.1769356279043832</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.1366706601262928</v>
+        <v>0.1370709919556285</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.2165516174756088</v>
+        <v>0.2146658606577506</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>125</v>
@@ -7861,19 +7861,19 @@
         <v>128889</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>108116</v>
+        <v>109271</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>150496</v>
+        <v>150278</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.1732258687245827</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.1453071833084248</v>
+        <v>0.1468603120232808</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.2022661091558434</v>
+        <v>0.2019727637470473</v>
       </c>
     </row>
     <row r="13">
@@ -7890,19 +7890,19 @@
         <v>180583</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>159319</v>
+        <v>160213</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>200906</v>
+        <v>200367</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4800954311606448</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4235635036949518</v>
+        <v>0.4259409679175004</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.5341261122903238</v>
+        <v>0.5326929046151173</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>150</v>
@@ -7911,19 +7911,19 @@
         <v>157852</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>140524</v>
+        <v>135556</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>178625</v>
+        <v>175248</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4290482394501086</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3819523072109282</v>
+        <v>0.3684476273593732</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.485510636144546</v>
+        <v>0.4763327659354333</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>321</v>
@@ -7932,19 +7932,19 @@
         <v>338434</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>311162</v>
+        <v>309542</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>368109</v>
+        <v>365955</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4548540871195137</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4181997945555861</v>
+        <v>0.4160237636640019</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4947363553338824</v>
+        <v>0.4918416088970055</v>
       </c>
     </row>
     <row r="14">
@@ -7961,19 +7961,19 @@
         <v>115118</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>96697</v>
+        <v>97100</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>134291</v>
+        <v>133711</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.3060505442388532</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2570765785707035</v>
+        <v>0.2581483263485247</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.3570246612395564</v>
+        <v>0.3554822820798538</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>122</v>
@@ -7982,19 +7982,19 @@
         <v>133332</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>113234</v>
+        <v>115813</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>150540</v>
+        <v>154209</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.3624035634615412</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3077753494925572</v>
+        <v>0.3147855698802535</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4091741375224129</v>
+        <v>0.4191464367827351</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>228</v>
@@ -8003,19 +8003,19 @@
         <v>248450</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>221099</v>
+        <v>221502</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>275072</v>
+        <v>273844</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3339154648797815</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.2971566116698674</v>
+        <v>0.2976972535688027</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.3696949353499228</v>
+        <v>0.3680449082339623</v>
       </c>
     </row>
     <row r="15">
@@ -8107,19 +8107,19 @@
         <v>8320</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3986</v>
+        <v>3847</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>16331</v>
+        <v>16392</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01594193340792611</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.007638184918142178</v>
+        <v>0.007371469981397052</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.03129085759514349</v>
+        <v>0.0314072943942974</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2</v>
@@ -8131,7 +8131,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>6887</v>
+        <v>6715</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01168389665961947</v>
@@ -8140,7 +8140,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.04169371232312242</v>
+        <v>0.04064936385029543</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>10</v>
@@ -8149,19 +8149,19 @@
         <v>10250</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>5179</v>
+        <v>4869</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>17394</v>
+        <v>18500</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01491827091867389</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.007537462351900076</v>
+        <v>0.007086497581852698</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02531509680021643</v>
+        <v>0.02692515685997533</v>
       </c>
     </row>
     <row r="17">
@@ -8178,19 +8178,19 @@
         <v>26543</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>17198</v>
+        <v>17276</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>38681</v>
+        <v>38217</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.05085737710776515</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.03295146786655949</v>
+        <v>0.03310175164537456</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.07411336490655551</v>
+        <v>0.07322479408870615</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>2</v>
@@ -8202,7 +8202,7 @@
         <v>0</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>8144</v>
+        <v>6880</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.01363115765240835</v>
@@ -8211,7 +8211,7 @@
         <v>0</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.04930434211595649</v>
+        <v>0.0416510318911277</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>26</v>
@@ -8220,19 +8220,19 @@
         <v>28795</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>18447</v>
+        <v>19204</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>41358</v>
+        <v>42331</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.04190792769583265</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.0268475031978796</v>
+        <v>0.02794968849198765</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.06019218949394472</v>
+        <v>0.06160903090742314</v>
       </c>
     </row>
     <row r="18">
@@ -8249,19 +8249,19 @@
         <v>121793</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>102687</v>
+        <v>102521</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>142182</v>
+        <v>143984</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2333576989069344</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.1967502863784376</v>
+        <v>0.1964333862634318</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2724238450443702</v>
+        <v>0.2758768635955312</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>29</v>
@@ -8270,19 +8270,19 @@
         <v>29505</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>21033</v>
+        <v>20650</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>40535</v>
+        <v>41010</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.1786226585789944</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.1273328354238747</v>
+        <v>0.1250103520417354</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2453945677827387</v>
+        <v>0.2482724745659729</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>141</v>
@@ -8291,19 +8291,19 @@
         <v>151298</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>130045</v>
+        <v>130742</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>174777</v>
+        <v>176746</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2201990037280584</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.189267659073369</v>
+        <v>0.1902814253940544</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2543702779089835</v>
+        <v>0.2572355603580757</v>
       </c>
     </row>
     <row r="19">
@@ -8320,19 +8320,19 @@
         <v>232346</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>209237</v>
+        <v>209896</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>255740</v>
+        <v>256860</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.4451803685200516</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.4009036426414083</v>
+        <v>0.4021666310012535</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.490003658040138</v>
+        <v>0.4921491059153862</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>64</v>
@@ -8341,19 +8341,19 @@
         <v>70843</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>57468</v>
+        <v>59006</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>82535</v>
+        <v>85075</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.4288772110289221</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3479024023618741</v>
+        <v>0.3572141943556345</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4996561342714146</v>
+        <v>0.5150353916062722</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>291</v>
@@ -8362,19 +8362,19 @@
         <v>303189</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>277141</v>
+        <v>277394</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>326160</v>
+        <v>329159</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.4412609728533332</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.4033505768105126</v>
+        <v>0.4037196504918579</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4746932439838742</v>
+        <v>0.4790583760747204</v>
       </c>
     </row>
     <row r="20">
@@ -8391,19 +8391,19 @@
         <v>132912</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>113184</v>
+        <v>112885</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>152392</v>
+        <v>152502</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.2546626220573228</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.2168634723320477</v>
+        <v>0.2162904990669638</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.2919872058152334</v>
+        <v>0.2921976514422649</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>55</v>
@@ -8412,19 +8412,19 @@
         <v>60653</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>49024</v>
+        <v>47269</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>73495</v>
+        <v>73324</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.3671850760800557</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.2967830219031626</v>
+        <v>0.2861602294966021</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.4449316440860769</v>
+        <v>0.443898293344147</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>186</v>
@@ -8433,19 +8433,19 @@
         <v>193564</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>170785</v>
+        <v>167664</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>218013</v>
+        <v>216763</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.2817138248041018</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.2485599110850066</v>
+        <v>0.244018313823477</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.3172959605341786</v>
+        <v>0.3154776522445428</v>
       </c>
     </row>
     <row r="21">
@@ -8537,19 +8537,19 @@
         <v>6897</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>3085</v>
+        <v>2980</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>13227</v>
+        <v>13715</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.006057366475993913</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.002709736639092083</v>
+        <v>0.002617544408788135</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01161650925586553</v>
+        <v>0.0120451795184081</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>12</v>
@@ -8558,19 +8558,19 @@
         <v>12234</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>6318</v>
+        <v>6823</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>21657</v>
+        <v>20498</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01484957139694979</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.007669265843606544</v>
+        <v>0.008281531353569998</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.026287835582325</v>
+        <v>0.02488021489435415</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>19</v>
@@ -8579,19 +8579,19 @@
         <v>19131</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>11132</v>
+        <v>12305</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>28591</v>
+        <v>30837</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.009748298285510271</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.005672488081688767</v>
+        <v>0.006270143518869533</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01456867064455958</v>
+        <v>0.0157129219720159</v>
       </c>
     </row>
     <row r="23">
@@ -8608,19 +8608,19 @@
         <v>48463</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>35503</v>
+        <v>35523</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>63467</v>
+        <v>64050</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.04256167736246522</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.03117966106839801</v>
+        <v>0.03119759387269429</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.05573910379380973</v>
+        <v>0.05625054595167574</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>15</v>
@@ -8629,19 +8629,19 @@
         <v>16108</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>9295</v>
+        <v>9845</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>25725</v>
+        <v>26502</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.01955180591190621</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.01128184898234299</v>
+        <v>0.01195008451864874</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.03122561499353047</v>
+        <v>0.03216824268000517</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>61</v>
@@ -8650,19 +8650,19 @@
         <v>64570</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>49775</v>
+        <v>50172</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>81749</v>
+        <v>82874</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.03290222706151417</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.02536303549269421</v>
+        <v>0.02556541104513749</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.04165565034736799</v>
+        <v>0.04222911704782995</v>
       </c>
     </row>
     <row r="24">
@@ -8679,19 +8679,19 @@
         <v>274302</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>246887</v>
+        <v>243785</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>303788</v>
+        <v>302665</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.240901351868393</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.2168246571584532</v>
+        <v>0.214100004832549</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.2667974703095643</v>
+        <v>0.265810673011509</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>166</v>
@@ -8700,19 +8700,19 @@
         <v>169790</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>147435</v>
+        <v>149403</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>195437</v>
+        <v>196538</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.2060937700381816</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.1789591052513872</v>
+        <v>0.1813475246983949</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.237224778198339</v>
+        <v>0.238560952822592</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>428</v>
@@ -8721,19 +8721,19 @@
         <v>444092</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>407877</v>
+        <v>409309</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>482560</v>
+        <v>480731</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.22628927080972</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.2078360684513775</v>
+        <v>0.2085656680005472</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.2458911521490215</v>
+        <v>0.2449591497554063</v>
       </c>
     </row>
     <row r="25">
@@ -8750,19 +8750,19 @@
         <v>514960</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>479801</v>
+        <v>482457</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>547644</v>
+        <v>550683</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.4522560502218659</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4213779591073574</v>
+        <v>0.4237104065181126</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4809600589168864</v>
+        <v>0.4836291728897162</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>337</v>
@@ -8771,19 +8771,19 @@
         <v>344282</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>317274</v>
+        <v>314769</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>375585</v>
+        <v>371004</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.4178954130255644</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3851123082628656</v>
+        <v>0.3820716908722731</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.4558913169973356</v>
+        <v>0.4503300772287612</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>833</v>
@@ -8792,19 +8792,19 @@
         <v>859242</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>815618</v>
+        <v>817058</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>902572</v>
+        <v>903606</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.4378315946998156</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.4156027598698544</v>
+        <v>0.4163365339144379</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.4599105187843541</v>
+        <v>0.4604375039464205</v>
       </c>
     </row>
     <row r="26">
@@ -8821,19 +8821,19 @@
         <v>294026</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>266089</v>
+        <v>264155</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>325344</v>
+        <v>322715</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.2582235540712819</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.2336888159814909</v>
+        <v>0.2319902025816575</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.2857284623790726</v>
+        <v>0.2834198935403488</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>266</v>
@@ -8842,19 +8842,19 @@
         <v>281434</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>253100</v>
+        <v>256011</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>311008</v>
+        <v>309944</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.341609439627398</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.3072173832334871</v>
+        <v>0.3107498915703693</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.3775065617466272</v>
+        <v>0.3762147218770583</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>548</v>
@@ -8863,19 +8863,19 @@
         <v>575460</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>537136</v>
+        <v>536217</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>618254</v>
+        <v>615375</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.29322860914344</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.2737005534272481</v>
+        <v>0.2732321270235629</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.3150346195974179</v>
+        <v>0.3135675911886733</v>
       </c>
     </row>
     <row r="27">
@@ -8967,19 +8967,19 @@
         <v>9776</v>
       </c>
       <c r="E28" s="5" t="n">
-        <v>4731</v>
+        <v>4828</v>
       </c>
       <c r="F28" s="5" t="n">
-        <v>17231</v>
+        <v>17628</v>
       </c>
       <c r="G28" s="6" t="n">
         <v>0.01585212502757993</v>
       </c>
       <c r="H28" s="6" t="n">
-        <v>0.007671357201195668</v>
+        <v>0.007829232894467611</v>
       </c>
       <c r="I28" s="6" t="n">
-        <v>0.02794184367360489</v>
+        <v>0.02858467159847616</v>
       </c>
       <c r="J28" s="5" t="n">
         <v>9</v>
@@ -8988,19 +8988,19 @@
         <v>8909</v>
       </c>
       <c r="L28" s="5" t="n">
-        <v>3963</v>
+        <v>4041</v>
       </c>
       <c r="M28" s="5" t="n">
-        <v>15926</v>
+        <v>16799</v>
       </c>
       <c r="N28" s="6" t="n">
         <v>0.01210336505715627</v>
       </c>
       <c r="O28" s="6" t="n">
-        <v>0.005384486742120231</v>
+        <v>0.00548992578194111</v>
       </c>
       <c r="P28" s="6" t="n">
-        <v>0.02163607226046643</v>
+        <v>0.02282184778689946</v>
       </c>
       <c r="Q28" s="5" t="n">
         <v>19</v>
@@ -9009,19 +9009,19 @@
         <v>18685</v>
       </c>
       <c r="S28" s="5" t="n">
-        <v>11816</v>
+        <v>11175</v>
       </c>
       <c r="T28" s="5" t="n">
-        <v>28568</v>
+        <v>28257</v>
       </c>
       <c r="U28" s="6" t="n">
         <v>0.01381230733865224</v>
       </c>
       <c r="V28" s="6" t="n">
-        <v>0.008734897999585595</v>
+        <v>0.008260924251135506</v>
       </c>
       <c r="W28" s="6" t="n">
-        <v>0.02111798494317125</v>
+        <v>0.02088788326996162</v>
       </c>
     </row>
     <row r="29">
@@ -9038,19 +9038,19 @@
         <v>22435</v>
       </c>
       <c r="E29" s="5" t="n">
-        <v>14403</v>
+        <v>14319</v>
       </c>
       <c r="F29" s="5" t="n">
-        <v>33587</v>
+        <v>34104</v>
       </c>
       <c r="G29" s="6" t="n">
         <v>0.03637904516825822</v>
       </c>
       <c r="H29" s="6" t="n">
-        <v>0.02335561014553848</v>
+        <v>0.023218371079387</v>
       </c>
       <c r="I29" s="6" t="n">
-        <v>0.05446377137211964</v>
+        <v>0.05530229207744907</v>
       </c>
       <c r="J29" s="5" t="n">
         <v>16</v>
@@ -9059,19 +9059,19 @@
         <v>16629</v>
       </c>
       <c r="L29" s="5" t="n">
-        <v>9589</v>
+        <v>9607</v>
       </c>
       <c r="M29" s="5" t="n">
-        <v>26671</v>
+        <v>26230</v>
       </c>
       <c r="N29" s="6" t="n">
         <v>0.02259057578005514</v>
       </c>
       <c r="O29" s="6" t="n">
-        <v>0.0130266213721812</v>
+        <v>0.0130507791548669</v>
       </c>
       <c r="P29" s="6" t="n">
-        <v>0.03623321593954901</v>
+        <v>0.03563451918794537</v>
       </c>
       <c r="Q29" s="5" t="n">
         <v>38</v>
@@ -9080,19 +9080,19 @@
         <v>39063</v>
       </c>
       <c r="S29" s="5" t="n">
-        <v>28268</v>
+        <v>27596</v>
       </c>
       <c r="T29" s="5" t="n">
-        <v>53779</v>
+        <v>52118</v>
       </c>
       <c r="U29" s="6" t="n">
         <v>0.02887630720071745</v>
       </c>
       <c r="V29" s="6" t="n">
-        <v>0.02089651099647606</v>
+        <v>0.02039926805406313</v>
       </c>
       <c r="W29" s="6" t="n">
-        <v>0.03975412222175562</v>
+        <v>0.03852668496140595</v>
       </c>
     </row>
     <row r="30">
@@ -9109,19 +9109,19 @@
         <v>137116</v>
       </c>
       <c r="E30" s="5" t="n">
-        <v>115012</v>
+        <v>115858</v>
       </c>
       <c r="F30" s="5" t="n">
-        <v>157891</v>
+        <v>158450</v>
       </c>
       <c r="G30" s="6" t="n">
         <v>0.2223408058821738</v>
       </c>
       <c r="H30" s="6" t="n">
-        <v>0.1864979306412183</v>
+        <v>0.1878696239581596</v>
       </c>
       <c r="I30" s="6" t="n">
-        <v>0.2560292575416465</v>
+        <v>0.256935441366048</v>
       </c>
       <c r="J30" s="5" t="n">
         <v>129</v>
@@ -9130,19 +9130,19 @@
         <v>136097</v>
       </c>
       <c r="L30" s="5" t="n">
-        <v>116353</v>
+        <v>114939</v>
       </c>
       <c r="M30" s="5" t="n">
-        <v>156010</v>
+        <v>158782</v>
       </c>
       <c r="N30" s="6" t="n">
         <v>0.1848914700517779</v>
       </c>
       <c r="O30" s="6" t="n">
-        <v>0.1580687592995054</v>
+        <v>0.1561477549854319</v>
       </c>
       <c r="P30" s="6" t="n">
-        <v>0.2119445333221462</v>
+        <v>0.2157094664652392</v>
       </c>
       <c r="Q30" s="5" t="n">
         <v>259</v>
@@ -9151,19 +9151,19 @@
         <v>273213</v>
       </c>
       <c r="S30" s="5" t="n">
-        <v>244457</v>
+        <v>245063</v>
       </c>
       <c r="T30" s="5" t="n">
-        <v>305858</v>
+        <v>303139</v>
       </c>
       <c r="U30" s="6" t="n">
         <v>0.2019634495648522</v>
       </c>
       <c r="V30" s="6" t="n">
-        <v>0.1807066202221245</v>
+        <v>0.1811546749140013</v>
       </c>
       <c r="W30" s="6" t="n">
-        <v>0.226095859608009</v>
+        <v>0.2240853656933862</v>
       </c>
     </row>
     <row r="31">
@@ -9180,19 +9180,19 @@
         <v>283199</v>
       </c>
       <c r="E31" s="5" t="n">
-        <v>258487</v>
+        <v>254143</v>
       </c>
       <c r="F31" s="5" t="n">
-        <v>307957</v>
+        <v>308151</v>
       </c>
       <c r="G31" s="6" t="n">
         <v>0.4592241666656957</v>
       </c>
       <c r="H31" s="6" t="n">
-        <v>0.4191511645126888</v>
+        <v>0.4121078686105184</v>
       </c>
       <c r="I31" s="6" t="n">
-        <v>0.4993707071659865</v>
+        <v>0.4996850962764592</v>
       </c>
       <c r="J31" s="5" t="n">
         <v>307</v>
@@ -9201,19 +9201,19 @@
         <v>321733</v>
       </c>
       <c r="L31" s="5" t="n">
-        <v>293800</v>
+        <v>295619</v>
       </c>
       <c r="M31" s="5" t="n">
-        <v>348023</v>
+        <v>348156</v>
       </c>
       <c r="N31" s="6" t="n">
         <v>0.437082546759505</v>
       </c>
       <c r="O31" s="6" t="n">
-        <v>0.3991354282050575</v>
+        <v>0.4016072292855107</v>
       </c>
       <c r="P31" s="6" t="n">
-        <v>0.4727983913296656</v>
+        <v>0.472979117293442</v>
       </c>
       <c r="Q31" s="5" t="n">
         <v>582</v>
@@ -9222,19 +9222,19 @@
         <v>604932</v>
       </c>
       <c r="S31" s="5" t="n">
-        <v>569248</v>
+        <v>570057</v>
       </c>
       <c r="T31" s="5" t="n">
-        <v>643113</v>
+        <v>639261</v>
       </c>
       <c r="U31" s="6" t="n">
         <v>0.4471762179299816</v>
       </c>
       <c r="V31" s="6" t="n">
-        <v>0.4207980167724265</v>
+        <v>0.4213962806682011</v>
       </c>
       <c r="W31" s="6" t="n">
-        <v>0.4754004923939902</v>
+        <v>0.4725531468318585</v>
       </c>
     </row>
     <row r="32">
@@ -9251,19 +9251,19 @@
         <v>164166</v>
       </c>
       <c r="E32" s="5" t="n">
-        <v>142908</v>
+        <v>140789</v>
       </c>
       <c r="F32" s="5" t="n">
-        <v>186991</v>
+        <v>185437</v>
       </c>
       <c r="G32" s="6" t="n">
         <v>0.2662038572562924</v>
       </c>
       <c r="H32" s="6" t="n">
-        <v>0.2317338654686711</v>
+        <v>0.2282970517091435</v>
       </c>
       <c r="I32" s="6" t="n">
-        <v>0.3032174844013117</v>
+        <v>0.3006960487855962</v>
       </c>
       <c r="J32" s="5" t="n">
         <v>236</v>
@@ -9272,19 +9272,19 @@
         <v>252724</v>
       </c>
       <c r="L32" s="5" t="n">
-        <v>227039</v>
+        <v>227135</v>
       </c>
       <c r="M32" s="5" t="n">
-        <v>281591</v>
+        <v>280678</v>
       </c>
       <c r="N32" s="6" t="n">
         <v>0.3433320423515057</v>
       </c>
       <c r="O32" s="6" t="n">
-        <v>0.3084388047078949</v>
+        <v>0.3085690789972093</v>
       </c>
       <c r="P32" s="6" t="n">
-        <v>0.382548941791863</v>
+        <v>0.3813093992537051</v>
       </c>
       <c r="Q32" s="5" t="n">
         <v>393</v>
@@ -9293,19 +9293,19 @@
         <v>416889</v>
       </c>
       <c r="S32" s="5" t="n">
-        <v>381314</v>
+        <v>382450</v>
       </c>
       <c r="T32" s="5" t="n">
-        <v>450312</v>
+        <v>449921</v>
       </c>
       <c r="U32" s="6" t="n">
         <v>0.3081717179657966</v>
       </c>
       <c r="V32" s="6" t="n">
-        <v>0.2818737275820755</v>
+        <v>0.2827140317930127</v>
       </c>
       <c r="W32" s="6" t="n">
-        <v>0.3328783701734091</v>
+        <v>0.3325893284248879</v>
       </c>
     </row>
     <row r="33">
@@ -9397,19 +9397,19 @@
         <v>7440</v>
       </c>
       <c r="E34" s="5" t="n">
-        <v>3067</v>
+        <v>3125</v>
       </c>
       <c r="F34" s="5" t="n">
-        <v>13841</v>
+        <v>14828</v>
       </c>
       <c r="G34" s="6" t="n">
         <v>0.02600915277848354</v>
       </c>
       <c r="H34" s="6" t="n">
-        <v>0.01072272391224832</v>
+        <v>0.01092524804402803</v>
       </c>
       <c r="I34" s="6" t="n">
-        <v>0.04838376491944309</v>
+        <v>0.05183601335288799</v>
       </c>
       <c r="J34" s="5" t="n">
         <v>14</v>
@@ -9418,19 +9418,19 @@
         <v>15553</v>
       </c>
       <c r="L34" s="5" t="n">
-        <v>9406</v>
+        <v>9581</v>
       </c>
       <c r="M34" s="5" t="n">
-        <v>25361</v>
+        <v>26870</v>
       </c>
       <c r="N34" s="6" t="n">
         <v>0.01445819295932867</v>
       </c>
       <c r="O34" s="6" t="n">
-        <v>0.00874373524901478</v>
+        <v>0.008906339582043751</v>
       </c>
       <c r="P34" s="6" t="n">
-        <v>0.02357462797475129</v>
+        <v>0.02497812910749373</v>
       </c>
       <c r="Q34" s="5" t="n">
         <v>21</v>
@@ -9439,19 +9439,19 @@
         <v>22994</v>
       </c>
       <c r="S34" s="5" t="n">
-        <v>14722</v>
+        <v>14391</v>
       </c>
       <c r="T34" s="5" t="n">
-        <v>34336</v>
+        <v>34388</v>
       </c>
       <c r="U34" s="6" t="n">
         <v>0.01688455846189332</v>
       </c>
       <c r="V34" s="6" t="n">
-        <v>0.01081045163996587</v>
+        <v>0.01056767926913888</v>
       </c>
       <c r="W34" s="6" t="n">
-        <v>0.02521367820606335</v>
+        <v>0.02525154623478345</v>
       </c>
     </row>
     <row r="35">
@@ -9468,19 +9468,19 @@
         <v>16633</v>
       </c>
       <c r="E35" s="5" t="n">
-        <v>9991</v>
+        <v>9428</v>
       </c>
       <c r="F35" s="5" t="n">
-        <v>25800</v>
+        <v>25515</v>
       </c>
       <c r="G35" s="6" t="n">
         <v>0.05814449666183306</v>
       </c>
       <c r="H35" s="6" t="n">
-        <v>0.0349267633885961</v>
+        <v>0.03295947642781789</v>
       </c>
       <c r="I35" s="6" t="n">
-        <v>0.09018912391052693</v>
+        <v>0.08919452177540241</v>
       </c>
       <c r="J35" s="5" t="n">
         <v>35</v>
@@ -9489,19 +9489,19 @@
         <v>37537</v>
       </c>
       <c r="L35" s="5" t="n">
-        <v>27534</v>
+        <v>27616</v>
       </c>
       <c r="M35" s="5" t="n">
-        <v>51723</v>
+        <v>53230</v>
       </c>
       <c r="N35" s="6" t="n">
         <v>0.03489394832278068</v>
       </c>
       <c r="O35" s="6" t="n">
-        <v>0.02559498185919044</v>
+        <v>0.02567093403900799</v>
       </c>
       <c r="P35" s="6" t="n">
-        <v>0.04808070766181329</v>
+        <v>0.04948184273869333</v>
       </c>
       <c r="Q35" s="5" t="n">
         <v>51</v>
@@ -9510,19 +9510,19 @@
         <v>54170</v>
       </c>
       <c r="S35" s="5" t="n">
-        <v>41191</v>
+        <v>41112</v>
       </c>
       <c r="T35" s="5" t="n">
-        <v>70424</v>
+        <v>71174</v>
       </c>
       <c r="U35" s="6" t="n">
         <v>0.03977789989813263</v>
       </c>
       <c r="V35" s="6" t="n">
-        <v>0.03024676220186924</v>
+        <v>0.03018900999906938</v>
       </c>
       <c r="W35" s="6" t="n">
-        <v>0.0517130969736551</v>
+        <v>0.05226396149723148</v>
       </c>
     </row>
     <row r="36">
@@ -9539,19 +9539,19 @@
         <v>82885</v>
       </c>
       <c r="E36" s="5" t="n">
-        <v>67682</v>
+        <v>70245</v>
       </c>
       <c r="F36" s="5" t="n">
-        <v>98783</v>
+        <v>100132</v>
       </c>
       <c r="G36" s="6" t="n">
         <v>0.2897456976058222</v>
       </c>
       <c r="H36" s="6" t="n">
-        <v>0.2366006569119924</v>
+        <v>0.2455607901642499</v>
       </c>
       <c r="I36" s="6" t="n">
-        <v>0.3453231968982737</v>
+        <v>0.3500398453026201</v>
       </c>
       <c r="J36" s="5" t="n">
         <v>197</v>
@@ -9560,19 +9560,19 @@
         <v>209574</v>
       </c>
       <c r="L36" s="5" t="n">
-        <v>183843</v>
+        <v>184627</v>
       </c>
       <c r="M36" s="5" t="n">
-        <v>235014</v>
+        <v>237328</v>
       </c>
       <c r="N36" s="6" t="n">
         <v>0.1948151208597894</v>
       </c>
       <c r="O36" s="6" t="n">
-        <v>0.1708964073297145</v>
+        <v>0.17162559300484</v>
       </c>
       <c r="P36" s="6" t="n">
-        <v>0.2184638016951508</v>
+        <v>0.2206148097427434</v>
       </c>
       <c r="Q36" s="5" t="n">
         <v>276</v>
@@ -9581,19 +9581,19 @@
         <v>292458</v>
       </c>
       <c r="S36" s="5" t="n">
-        <v>262659</v>
+        <v>260977</v>
       </c>
       <c r="T36" s="5" t="n">
-        <v>322436</v>
+        <v>325621</v>
       </c>
       <c r="U36" s="6" t="n">
         <v>0.2147559985150969</v>
       </c>
       <c r="V36" s="6" t="n">
-        <v>0.192874013090454</v>
+        <v>0.1916392651662975</v>
       </c>
       <c r="W36" s="6" t="n">
-        <v>0.2367691905464466</v>
+        <v>0.2391076324448704</v>
       </c>
     </row>
     <row r="37">
@@ -9610,19 +9610,19 @@
         <v>108454</v>
       </c>
       <c r="E37" s="5" t="n">
-        <v>91349</v>
+        <v>92367</v>
       </c>
       <c r="F37" s="5" t="n">
-        <v>125815</v>
+        <v>124680</v>
       </c>
       <c r="G37" s="6" t="n">
         <v>0.3791295320882239</v>
       </c>
       <c r="H37" s="6" t="n">
-        <v>0.3193351637140245</v>
+        <v>0.3228931964002273</v>
       </c>
       <c r="I37" s="6" t="n">
-        <v>0.439819215863691</v>
+        <v>0.4358541508904324</v>
       </c>
       <c r="J37" s="5" t="n">
         <v>400</v>
@@ -9631,19 +9631,19 @@
         <v>437430</v>
       </c>
       <c r="L37" s="5" t="n">
-        <v>404945</v>
+        <v>405397</v>
       </c>
       <c r="M37" s="5" t="n">
-        <v>468543</v>
+        <v>471901</v>
       </c>
       <c r="N37" s="6" t="n">
         <v>0.4066257308350347</v>
       </c>
       <c r="O37" s="6" t="n">
-        <v>0.3764287038818436</v>
+        <v>0.3768485107758667</v>
       </c>
       <c r="P37" s="6" t="n">
-        <v>0.4355474153118546</v>
+        <v>0.4386693732998659</v>
       </c>
       <c r="Q37" s="5" t="n">
         <v>503</v>
@@ -9652,19 +9652,19 @@
         <v>545884</v>
       </c>
       <c r="S37" s="5" t="n">
-        <v>510398</v>
+        <v>509416</v>
       </c>
       <c r="T37" s="5" t="n">
-        <v>585934</v>
+        <v>581810</v>
       </c>
       <c r="U37" s="6" t="n">
         <v>0.4008499486372394</v>
       </c>
       <c r="V37" s="6" t="n">
-        <v>0.3747921239910245</v>
+        <v>0.3740710070546921</v>
       </c>
       <c r="W37" s="6" t="n">
-        <v>0.4302591108368964</v>
+        <v>0.427231125299854</v>
       </c>
     </row>
     <row r="38">
@@ -9681,19 +9681,19 @@
         <v>70649</v>
       </c>
       <c r="E38" s="5" t="n">
-        <v>56744</v>
+        <v>55359</v>
       </c>
       <c r="F38" s="5" t="n">
-        <v>86065</v>
+        <v>87631</v>
       </c>
       <c r="G38" s="6" t="n">
         <v>0.2469711208656373</v>
       </c>
       <c r="H38" s="6" t="n">
-        <v>0.1983631759136832</v>
+        <v>0.1935220086669358</v>
       </c>
       <c r="I38" s="6" t="n">
-        <v>0.3008636058349709</v>
+        <v>0.306338654865435</v>
       </c>
       <c r="J38" s="5" t="n">
         <v>340</v>
@@ -9702,19 +9702,19 @@
         <v>375662</v>
       </c>
       <c r="L38" s="5" t="n">
-        <v>341502</v>
+        <v>345637</v>
       </c>
       <c r="M38" s="5" t="n">
-        <v>406732</v>
+        <v>409168</v>
       </c>
       <c r="N38" s="6" t="n">
         <v>0.3492070070230666</v>
       </c>
       <c r="O38" s="6" t="n">
-        <v>0.3174530279437076</v>
+        <v>0.3212972304125745</v>
       </c>
       <c r="P38" s="6" t="n">
-        <v>0.3780895395314048</v>
+        <v>0.3803539166800458</v>
       </c>
       <c r="Q38" s="5" t="n">
         <v>406</v>
@@ -9723,19 +9723,19 @@
         <v>446310</v>
       </c>
       <c r="S38" s="5" t="n">
-        <v>412807</v>
+        <v>411908</v>
       </c>
       <c r="T38" s="5" t="n">
-        <v>484279</v>
+        <v>482204</v>
       </c>
       <c r="U38" s="6" t="n">
         <v>0.3277315944876378</v>
       </c>
       <c r="V38" s="6" t="n">
-        <v>0.3031294932435987</v>
+        <v>0.3024698154839497</v>
       </c>
       <c r="W38" s="6" t="n">
-        <v>0.3556123887811802</v>
+        <v>0.3540887217010935</v>
       </c>
     </row>
     <row r="39">
@@ -9827,19 +9827,19 @@
         <v>38401</v>
       </c>
       <c r="E40" s="5" t="n">
-        <v>27856</v>
+        <v>27843</v>
       </c>
       <c r="F40" s="5" t="n">
-        <v>53538</v>
+        <v>51795</v>
       </c>
       <c r="G40" s="6" t="n">
         <v>0.0113998552079953</v>
       </c>
       <c r="H40" s="6" t="n">
-        <v>0.008269324364455991</v>
+        <v>0.008265461220533057</v>
       </c>
       <c r="I40" s="6" t="n">
-        <v>0.01589353130807328</v>
+        <v>0.01537613241186282</v>
       </c>
       <c r="J40" s="5" t="n">
         <v>41</v>
@@ -9848,19 +9848,19 @@
         <v>43398</v>
       </c>
       <c r="L40" s="5" t="n">
-        <v>31739</v>
+        <v>32279</v>
       </c>
       <c r="M40" s="5" t="n">
-        <v>58895</v>
+        <v>57976</v>
       </c>
       <c r="N40" s="6" t="n">
         <v>0.01234700442141206</v>
       </c>
       <c r="O40" s="6" t="n">
-        <v>0.009029899685127456</v>
+        <v>0.009183689141659694</v>
       </c>
       <c r="P40" s="6" t="n">
-        <v>0.01675618889137979</v>
+        <v>0.01649454075114263</v>
       </c>
       <c r="Q40" s="5" t="n">
         <v>79</v>
@@ -9869,19 +9869,19 @@
         <v>81799</v>
       </c>
       <c r="S40" s="5" t="n">
-        <v>66074</v>
+        <v>64726</v>
       </c>
       <c r="T40" s="5" t="n">
-        <v>103081</v>
+        <v>100697</v>
       </c>
       <c r="U40" s="6" t="n">
         <v>0.01188349485050347</v>
       </c>
       <c r="V40" s="6" t="n">
-        <v>0.009599024097645561</v>
+        <v>0.009403298675222781</v>
       </c>
       <c r="W40" s="6" t="n">
-        <v>0.01497540555107231</v>
+        <v>0.0146290393289616</v>
       </c>
     </row>
     <row r="41">
@@ -9898,19 +9898,19 @@
         <v>138134</v>
       </c>
       <c r="E41" s="5" t="n">
-        <v>115297</v>
+        <v>116523</v>
       </c>
       <c r="F41" s="5" t="n">
-        <v>163164</v>
+        <v>165636</v>
       </c>
       <c r="G41" s="6" t="n">
         <v>0.04100709608914997</v>
       </c>
       <c r="H41" s="6" t="n">
-        <v>0.03422767277946286</v>
+        <v>0.03459136503127883</v>
       </c>
       <c r="I41" s="6" t="n">
-        <v>0.04843753282711466</v>
+        <v>0.04917147862192945</v>
       </c>
       <c r="J41" s="5" t="n">
         <v>85</v>
@@ -9919,19 +9919,19 @@
         <v>90151</v>
       </c>
       <c r="L41" s="5" t="n">
-        <v>73708</v>
+        <v>71245</v>
       </c>
       <c r="M41" s="5" t="n">
-        <v>110625</v>
+        <v>109202</v>
       </c>
       <c r="N41" s="6" t="n">
         <v>0.02564861766359464</v>
       </c>
       <c r="O41" s="6" t="n">
-        <v>0.02097043482167258</v>
+        <v>0.02026985195899009</v>
       </c>
       <c r="P41" s="6" t="n">
-        <v>0.03147367046059565</v>
+        <v>0.03106896313848585</v>
       </c>
       <c r="Q41" s="5" t="n">
         <v>214</v>
@@ -9940,19 +9940,19 @@
         <v>228285</v>
       </c>
       <c r="S41" s="5" t="n">
-        <v>199203</v>
+        <v>195224</v>
       </c>
       <c r="T41" s="5" t="n">
-        <v>260222</v>
+        <v>258138</v>
       </c>
       <c r="U41" s="6" t="n">
         <v>0.03316464749711746</v>
       </c>
       <c r="V41" s="6" t="n">
-        <v>0.02893972199375194</v>
+        <v>0.02836169968706834</v>
       </c>
       <c r="W41" s="6" t="n">
-        <v>0.0378043615740337</v>
+        <v>0.03750160443007088</v>
       </c>
     </row>
     <row r="42">
@@ -9969,19 +9969,19 @@
         <v>756260</v>
       </c>
       <c r="E42" s="5" t="n">
-        <v>706166</v>
+        <v>710155</v>
       </c>
       <c r="F42" s="5" t="n">
-        <v>803949</v>
+        <v>803818</v>
       </c>
       <c r="G42" s="6" t="n">
         <v>0.2245065029022184</v>
       </c>
       <c r="H42" s="6" t="n">
-        <v>0.2096354918581535</v>
+        <v>0.2108194996286983</v>
       </c>
       <c r="I42" s="6" t="n">
-        <v>0.238663860085174</v>
+        <v>0.2386248358987785</v>
       </c>
       <c r="J42" s="5" t="n">
         <v>637</v>
@@ -9990,19 +9990,19 @@
         <v>661404</v>
       </c>
       <c r="L42" s="5" t="n">
-        <v>613222</v>
+        <v>615454</v>
       </c>
       <c r="M42" s="5" t="n">
-        <v>706324</v>
+        <v>710219</v>
       </c>
       <c r="N42" s="6" t="n">
         <v>0.1881747560692883</v>
       </c>
       <c r="O42" s="6" t="n">
-        <v>0.1744666933273682</v>
+        <v>0.1751016289212148</v>
       </c>
       <c r="P42" s="6" t="n">
-        <v>0.2009550330043088</v>
+        <v>0.2020631144274372</v>
       </c>
       <c r="Q42" s="5" t="n">
         <v>1350</v>
@@ -10011,19 +10011,19 @@
         <v>1417664</v>
       </c>
       <c r="S42" s="5" t="n">
-        <v>1352988</v>
+        <v>1352742</v>
       </c>
       <c r="T42" s="5" t="n">
-        <v>1496100</v>
+        <v>1481375</v>
       </c>
       <c r="U42" s="6" t="n">
         <v>0.2059545442445239</v>
       </c>
       <c r="V42" s="6" t="n">
-        <v>0.1965586279729921</v>
+        <v>0.1965228934551322</v>
       </c>
       <c r="W42" s="6" t="n">
-        <v>0.2173495768177488</v>
+        <v>0.215210360030908</v>
       </c>
     </row>
     <row r="43">
@@ -10040,19 +10040,19 @@
         <v>1505140</v>
       </c>
       <c r="E43" s="5" t="n">
-        <v>1449093</v>
+        <v>1449387</v>
       </c>
       <c r="F43" s="5" t="n">
-        <v>1564115</v>
+        <v>1561165</v>
       </c>
       <c r="G43" s="6" t="n">
         <v>0.4468221770769314</v>
       </c>
       <c r="H43" s="6" t="n">
-        <v>0.4301838253135787</v>
+        <v>0.4302711188124775</v>
       </c>
       <c r="I43" s="6" t="n">
-        <v>0.4643299165882792</v>
+        <v>0.4634540770922013</v>
       </c>
       <c r="J43" s="5" t="n">
         <v>1394</v>
@@ -10061,19 +10061,19 @@
         <v>1476013</v>
       </c>
       <c r="L43" s="5" t="n">
-        <v>1415866</v>
+        <v>1416325</v>
       </c>
       <c r="M43" s="5" t="n">
-        <v>1536570</v>
+        <v>1539613</v>
       </c>
       <c r="N43" s="6" t="n">
         <v>0.4199376456404404</v>
       </c>
       <c r="O43" s="6" t="n">
-        <v>0.4028254515622023</v>
+        <v>0.4029558873702757</v>
       </c>
       <c r="P43" s="6" t="n">
-        <v>0.437166724858086</v>
+        <v>0.4380323312785454</v>
       </c>
       <c r="Q43" s="5" t="n">
         <v>2840</v>
@@ -10082,19 +10082,19 @@
         <v>2981153</v>
       </c>
       <c r="S43" s="5" t="n">
-        <v>2903898</v>
+        <v>2896567</v>
       </c>
       <c r="T43" s="5" t="n">
-        <v>3070524</v>
+        <v>3061813</v>
       </c>
       <c r="U43" s="6" t="n">
         <v>0.4330942184947362</v>
       </c>
       <c r="V43" s="6" t="n">
-        <v>0.4218708840511621</v>
+        <v>0.4208059053911568</v>
       </c>
       <c r="W43" s="6" t="n">
-        <v>0.4460779348510275</v>
+        <v>0.4448122979000025</v>
       </c>
     </row>
     <row r="44">
@@ -10111,19 +10111,19 @@
         <v>930608</v>
       </c>
       <c r="E44" s="5" t="n">
-        <v>882378</v>
+        <v>875162</v>
       </c>
       <c r="F44" s="5" t="n">
-        <v>983429</v>
+        <v>980016</v>
       </c>
       <c r="G44" s="6" t="n">
         <v>0.276264368723705</v>
       </c>
       <c r="H44" s="6" t="n">
-        <v>0.2619464790929585</v>
+        <v>0.259804347721896</v>
       </c>
       <c r="I44" s="6" t="n">
-        <v>0.2919448947038152</v>
+        <v>0.2909315802054375</v>
       </c>
       <c r="J44" s="5" t="n">
         <v>1153</v>
@@ -10132,19 +10132,19 @@
         <v>1243873</v>
       </c>
       <c r="L44" s="5" t="n">
-        <v>1184981</v>
+        <v>1190945</v>
       </c>
       <c r="M44" s="5" t="n">
-        <v>1300240</v>
+        <v>1305399</v>
       </c>
       <c r="N44" s="6" t="n">
         <v>0.3538919762052645</v>
       </c>
       <c r="O44" s="6" t="n">
-        <v>0.3371366071246384</v>
+        <v>0.3388334829387286</v>
       </c>
       <c r="P44" s="6" t="n">
-        <v>0.3699289435647712</v>
+        <v>0.3713966966452992</v>
       </c>
       <c r="Q44" s="5" t="n">
         <v>2036</v>
@@ -10153,19 +10153,19 @@
         <v>2174481</v>
       </c>
       <c r="S44" s="5" t="n">
-        <v>2095760</v>
+        <v>2087460</v>
       </c>
       <c r="T44" s="5" t="n">
-        <v>2247125</v>
+        <v>2239844</v>
       </c>
       <c r="U44" s="6" t="n">
         <v>0.3159030949131189</v>
       </c>
       <c r="V44" s="6" t="n">
-        <v>0.3044666145479489</v>
+        <v>0.3032608641623468</v>
       </c>
       <c r="W44" s="6" t="n">
-        <v>0.3264566443140178</v>
+        <v>0.325398768875886</v>
       </c>
     </row>
     <row r="45">
